--- a/iso_simulator/annualSimulation/results/annualResults_summary.xlsx
+++ b/iso_simulator/annualSimulation/results/annualResults_summary.xlsx
@@ -888,16 +888,16 @@
         <v>7.099999999999999</v>
       </c>
       <c r="Y2">
-        <v>1461.421188596631</v>
+        <v>1545.169778625117</v>
       </c>
       <c r="Z2">
-        <v>6.906370690062943</v>
+        <v>7.302148999574287</v>
       </c>
       <c r="AA2">
-        <v>223.48849856383</v>
+        <v>243.5881601706667</v>
       </c>
       <c r="AB2">
-        <v>1.056159872383944</v>
+        <v>1.151146666666667</v>
       </c>
       <c r="AC2">
         <v>7647.08545014216</v>
@@ -1049,16 +1049,16 @@
         <v>17.3</v>
       </c>
       <c r="Y3">
-        <v>11923.66171365018</v>
+        <v>11959.50849732252</v>
       </c>
       <c r="Z3">
-        <v>17.27405994467361</v>
+        <v>17.32599193543705</v>
       </c>
       <c r="AA3">
-        <v>1611.493771483711</v>
+        <v>1617.946192544732</v>
       </c>
       <c r="AB3">
-        <v>2.334604979375589</v>
+        <v>2.343952737713009</v>
       </c>
       <c r="AC3">
         <v>19846.29498696215</v>
@@ -1210,16 +1210,16 @@
         <v>10</v>
       </c>
       <c r="Y4">
-        <v>907.9388197600202</v>
+        <v>920.4965612866991</v>
       </c>
       <c r="Z4">
-        <v>9.932261566012095</v>
+        <v>10.06963511013957</v>
       </c>
       <c r="AA4">
-        <v>68.55628122834715</v>
+        <v>72.44918110161763</v>
       </c>
       <c r="AB4">
-        <v>0.7499612334375176</v>
+        <v>0.7925470321170338</v>
       </c>
       <c r="AC4">
         <v>56509.04430121201</v>
@@ -1371,16 +1371,16 @@
         <v>79.00000000000001</v>
       </c>
       <c r="Y5">
-        <v>51566.26562839076</v>
+        <v>53473.9996952143</v>
       </c>
       <c r="Z5">
-        <v>77.58466229329122</v>
+        <v>80.45496716249664</v>
       </c>
       <c r="AA5">
-        <v>10414.86264995934</v>
+        <v>11006.26021067463</v>
       </c>
       <c r="AB5">
-        <v>15.66981032427583</v>
+        <v>16.55960483372951</v>
       </c>
       <c r="AC5">
         <v>48854.02451252063</v>
@@ -1532,16 +1532,16 @@
         <v>7.099999999999999</v>
       </c>
       <c r="Y6">
-        <v>4016.288786084757</v>
+        <v>4242.797033226667</v>
       </c>
       <c r="Z6">
-        <v>6.910262492093612</v>
+        <v>7.299983333333333</v>
       </c>
       <c r="AA6">
-        <v>490.1184618455267</v>
+        <v>544.4804411595852</v>
       </c>
       <c r="AB6">
-        <v>0.8432778129172815</v>
+        <v>0.9368108148148148</v>
       </c>
       <c r="AC6">
         <v>32742.40632574527</v>
@@ -1693,16 +1693,16 @@
         <v>10</v>
       </c>
       <c r="Y7">
-        <v>7188.373318591133</v>
+        <v>7206.456348488312</v>
       </c>
       <c r="Z7">
-        <v>9.987611057205051</v>
+        <v>10.01273583319321</v>
       </c>
       <c r="AA7">
-        <v>98.72040131243622</v>
+        <v>104.3261405805616</v>
       </c>
       <c r="AB7">
-        <v>0.1371632952297827</v>
+        <v>0.1449519757861107</v>
       </c>
       <c r="AC7">
         <v>291486.670089793</v>
@@ -1854,16 +1854,16 @@
         <v>24.19999999999999</v>
       </c>
       <c r="Y8">
-        <v>16228.21352035223</v>
+        <v>16632.26992707227</v>
       </c>
       <c r="Z8">
-        <v>23.90876237002467</v>
+        <v>24.50405208569424</v>
       </c>
       <c r="AA8">
-        <v>1078.250507169657</v>
+        <v>1175.224044782467</v>
       </c>
       <c r="AB8">
-        <v>1.588568890774514</v>
+        <v>1.731438422535211</v>
       </c>
       <c r="AC8">
         <v>73595.14859390126</v>
@@ -2015,16 +2015,16 @@
         <v>7.1</v>
       </c>
       <c r="Y9">
-        <v>1781.422978839199</v>
+        <v>1784.997211823123</v>
       </c>
       <c r="Z9">
-        <v>7.092891547683687</v>
+        <v>7.107122669220945</v>
       </c>
       <c r="AA9">
-        <v>160.6798044720903</v>
+        <v>161.3231664091966</v>
       </c>
       <c r="AB9">
-        <v>0.6397607084681212</v>
+        <v>0.6423223103448277</v>
       </c>
       <c r="AC9">
         <v>8670.875372291339</v>
@@ -2176,16 +2176,16 @@
         <v>8.1</v>
       </c>
       <c r="Y10">
-        <v>5125.955277463337</v>
+        <v>5335.778096408275</v>
       </c>
       <c r="Z10">
-        <v>7.940973047958778</v>
+        <v>8.266024137931034</v>
       </c>
       <c r="AA10">
-        <v>559.9256865636146</v>
+        <v>610.2831631103999</v>
       </c>
       <c r="AB10">
-        <v>0.8674197384066585</v>
+        <v>0.9454319999999998</v>
       </c>
       <c r="AC10">
         <v>46825.99199593535</v>

--- a/iso_simulator/annualSimulation/results/annualResults_summary.xlsx
+++ b/iso_simulator/annualSimulation/results/annualResults_summary.xlsx
@@ -822,16 +822,16 @@
         <v>211.6048</v>
       </c>
       <c r="C2">
-        <v>69948.10032303128</v>
+        <v>76079.75269086983</v>
       </c>
       <c r="D2">
-        <v>330.5600833394672</v>
+        <v>359.5369891933918</v>
       </c>
       <c r="E2">
-        <v>73025.81673724465</v>
+        <v>79427.26180926812</v>
       </c>
       <c r="F2">
-        <v>345.1047270064037</v>
+        <v>375.3566167179011</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -840,22 +840,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>73025.81673724465</v>
+        <v>79427.26180926812</v>
       </c>
       <c r="J2">
-        <v>345.1047270064037</v>
+        <v>375.3566167179011</v>
       </c>
       <c r="K2">
-        <v>17526.19601693872</v>
+        <v>19062.54283422435</v>
       </c>
       <c r="L2">
-        <v>82.82513448153688</v>
+        <v>90.08558801229627</v>
       </c>
       <c r="M2">
-        <v>-10914.07897052881</v>
+        <v>-10931.62729671982</v>
       </c>
       <c r="N2">
-        <v>-51.57765310866676</v>
+        <v>-51.66058282571956</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -888,16 +888,16 @@
         <v>7.099999999999999</v>
       </c>
       <c r="Y2">
-        <v>1545.169778625117</v>
+        <v>1536.881987016501</v>
       </c>
       <c r="Z2">
-        <v>7.302148999574287</v>
+        <v>7.26298263090677</v>
       </c>
       <c r="AA2">
-        <v>243.5881601706667</v>
+        <v>196.3929541376</v>
       </c>
       <c r="AB2">
-        <v>1.151146666666667</v>
+        <v>0.928112</v>
       </c>
       <c r="AC2">
         <v>7647.08545014216</v>
@@ -906,10 +906,10 @@
         <v>36.13852545</v>
       </c>
       <c r="AE2">
-        <v>73025.81673724465</v>
+        <v>79427.26180926812</v>
       </c>
       <c r="AF2">
-        <v>345.1047270064037</v>
+        <v>375.3566167179011</v>
       </c>
       <c r="AG2">
         <v>6164.159011742159</v>
@@ -930,10 +930,10 @@
         <v>3.924480000000001</v>
       </c>
       <c r="AM2">
-        <v>21808.56386901833</v>
+        <v>23344.91068630396</v>
       </c>
       <c r="AN2">
-        <v>103.0627087335369</v>
+        <v>110.3231622642963</v>
       </c>
       <c r="AO2">
         <v>11621.94490230216</v>
@@ -983,16 +983,16 @@
         <v>690.2639999999999</v>
       </c>
       <c r="C3">
-        <v>217044.5155908703</v>
+        <v>228669.6487221458</v>
       </c>
       <c r="D3">
-        <v>314.4369626561291</v>
+        <v>331.2785379538058</v>
       </c>
       <c r="E3">
-        <v>217478.604622052</v>
+        <v>229126.9880195901</v>
       </c>
       <c r="F3">
-        <v>315.0658365814414</v>
+        <v>331.9410950297134</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1001,22 +1001,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>217478.604622052</v>
+        <v>229126.9880195901</v>
       </c>
       <c r="J3">
-        <v>315.0658365814414</v>
+        <v>331.9410950297134</v>
       </c>
       <c r="K3">
-        <v>39146.14883196937</v>
+        <v>41242.85784352622</v>
       </c>
       <c r="L3">
-        <v>56.71185058465945</v>
+        <v>59.74939710534842</v>
       </c>
       <c r="M3">
-        <v>-21672.79141813523</v>
+        <v>-19068.40789000158</v>
       </c>
       <c r="N3">
-        <v>-31.39782955236726</v>
+        <v>-27.62480426329866</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1049,16 +1049,16 @@
         <v>17.3</v>
       </c>
       <c r="Y3">
-        <v>11959.50849732252</v>
+        <v>11957.81677241365</v>
       </c>
       <c r="Z3">
-        <v>17.32599193543705</v>
+        <v>17.32354109791855</v>
       </c>
       <c r="AA3">
-        <v>1617.946192544732</v>
+        <v>1465.38644026243</v>
       </c>
       <c r="AB3">
-        <v>2.343952737713009</v>
+        <v>2.122936210294076</v>
       </c>
       <c r="AC3">
         <v>19846.29498696215</v>
@@ -1067,10 +1067,10 @@
         <v>28.75174568999999</v>
       </c>
       <c r="AE3">
-        <v>217478.604622052</v>
+        <v>229126.9880195901</v>
       </c>
       <c r="AF3">
-        <v>315.0658365814414</v>
+        <v>331.9410950297134</v>
       </c>
       <c r="AG3">
         <v>18395.08395336215</v>
@@ -1091,10 +1091,10 @@
         <v>1.177344</v>
       </c>
       <c r="AM3">
-        <v>50260.07402466817</v>
+        <v>52356.78303622502</v>
       </c>
       <c r="AN3">
-        <v>72.81282817105945</v>
+        <v>75.85037469174843</v>
       </c>
       <c r="AO3">
         <v>27786.16743144216</v>
@@ -1144,16 +1144,16 @@
         <v>91.4131</v>
       </c>
       <c r="C4">
-        <v>51972.4334072439</v>
+        <v>54035.40589132848</v>
       </c>
       <c r="D4">
-        <v>568.5446988149828</v>
+        <v>591.1122792174041</v>
       </c>
       <c r="E4">
-        <v>53427.66154264673</v>
+        <v>55548.39725628567</v>
       </c>
       <c r="F4">
-        <v>584.4639503818022</v>
+        <v>607.6634230354913</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1162,22 +1162,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>53427.66154264673</v>
+        <v>55548.39725628567</v>
       </c>
       <c r="J4">
-        <v>584.4639503818022</v>
+        <v>607.6634230354913</v>
       </c>
       <c r="K4">
-        <v>16562.57507822049</v>
+        <v>17220.00314944856</v>
       </c>
       <c r="L4">
-        <v>181.1838246183587</v>
+        <v>188.3756611410023</v>
       </c>
       <c r="M4">
-        <v>-19578.87118293201</v>
+        <v>-16731.51865307658</v>
       </c>
       <c r="N4">
-        <v>-214.1801468600453</v>
+        <v>-183.0319577071184</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>10</v>
       </c>
       <c r="Y4">
-        <v>920.4965612866991</v>
+        <v>920.3545305074829</v>
       </c>
       <c r="Z4">
-        <v>10.06963511013957</v>
+        <v>10.06808138557256</v>
       </c>
       <c r="AA4">
-        <v>72.44918110161763</v>
+        <v>70.8326679330217</v>
       </c>
       <c r="AB4">
-        <v>0.7925470321170338</v>
+        <v>0.774863426937952</v>
       </c>
       <c r="AC4">
         <v>56509.04430121201</v>
@@ -1228,10 +1228,10 @@
         <v>618.1722783847392</v>
       </c>
       <c r="AE4">
-        <v>53427.66154264673</v>
+        <v>55548.39725628567</v>
       </c>
       <c r="AF4">
-        <v>584.4639503818022</v>
+        <v>607.6634230354913</v>
       </c>
       <c r="AG4">
         <v>56252.79509929201</v>
@@ -1252,10 +1252,10 @@
         <v>1.569792000000001</v>
       </c>
       <c r="AM4">
-        <v>48207.63988689921</v>
+        <v>48865.06795812729</v>
       </c>
       <c r="AN4">
-        <v>527.3603005138127</v>
+        <v>534.5521370364563</v>
       </c>
       <c r="AO4">
         <v>61272.26610265202</v>
@@ -1305,16 +1305,16 @@
         <v>664.6451</v>
       </c>
       <c r="C5">
-        <v>237883.2363701498</v>
+        <v>246966.0511828376</v>
       </c>
       <c r="D5">
-        <v>357.9101634393299</v>
+        <v>371.5758247263654</v>
       </c>
       <c r="E5">
-        <v>244543.966988514</v>
+        <v>253881.100615957</v>
       </c>
       <c r="F5">
-        <v>367.9316480156312</v>
+        <v>381.9799478187036</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>244543.966988514</v>
+        <v>253881.100615957</v>
       </c>
       <c r="J5">
-        <v>367.9316480156312</v>
+        <v>381.9799478187036</v>
       </c>
       <c r="K5">
-        <v>75808.62976643934</v>
+        <v>78703.14119094668</v>
       </c>
       <c r="L5">
-        <v>114.0588108848457</v>
+        <v>118.4137838237981</v>
       </c>
       <c r="M5">
-        <v>-26881.43393130636</v>
+        <v>-19849.72800677411</v>
       </c>
       <c r="N5">
-        <v>-40.44479366703577</v>
+        <v>-29.86515360870653</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1371,16 +1371,16 @@
         <v>79.00000000000001</v>
       </c>
       <c r="Y5">
-        <v>53473.9996952143</v>
+        <v>53488.97833993503</v>
       </c>
       <c r="Z5">
-        <v>80.45496716249664</v>
+        <v>80.47750346754235</v>
       </c>
       <c r="AA5">
-        <v>11006.26021067463</v>
+        <v>11176.73858566045</v>
       </c>
       <c r="AB5">
-        <v>16.55960483372951</v>
+        <v>16.8161001798711</v>
       </c>
       <c r="AC5">
         <v>48854.02451252063</v>
@@ -1389,10 +1389,10 @@
         <v>73.5039264</v>
       </c>
       <c r="AE5">
-        <v>244543.966988514</v>
+        <v>253881.100615957</v>
       </c>
       <c r="AF5">
-        <v>367.9316480156312</v>
+        <v>381.9799478187036</v>
       </c>
       <c r="AG5">
         <v>45127.75822388064</v>
@@ -1413,28 +1413,28 @@
         <v>3.139584000000001</v>
       </c>
       <c r="AM5">
-        <v>103166.8834934509</v>
+        <v>106061.3949179582</v>
       </c>
       <c r="AN5">
-        <v>155.2210096688457</v>
+        <v>159.5759826077981</v>
       </c>
       <c r="AO5">
         <v>52693.40524573664</v>
       </c>
       <c r="AP5">
-        <v>54658.03730487344</v>
+        <v>51157.71129149164</v>
       </c>
       <c r="AQ5">
-        <v>25876.96243775124</v>
+        <v>24093.34654821123</v>
       </c>
       <c r="AR5">
-        <v>5090.46273921115</v>
+        <v>4911.914497344042</v>
       </c>
       <c r="AS5">
-        <v>3538.958276875616</v>
+        <v>3423.393550588788</v>
       </c>
       <c r="AT5">
-        <v>20151.65385103543</v>
+        <v>18729.05669534759</v>
       </c>
       <c r="AU5" t="s">
         <v>65</v>
@@ -1466,16 +1466,16 @@
         <v>581.2064</v>
       </c>
       <c r="C6">
-        <v>84524.5458887406</v>
+        <v>97438.4374241778</v>
       </c>
       <c r="D6">
-        <v>145.4294823469607</v>
+        <v>167.6485968223643</v>
       </c>
       <c r="E6">
-        <v>89088.87136673259</v>
+        <v>102700.1130450834</v>
       </c>
       <c r="F6">
-        <v>153.2826743936966</v>
+        <v>176.701621050772</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1484,22 +1484,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>89088.87136673259</v>
+        <v>102700.1130450834</v>
       </c>
       <c r="J6">
-        <v>153.2826743936966</v>
+        <v>176.701621050772</v>
       </c>
       <c r="K6">
-        <v>21381.32912801582</v>
+        <v>24648.02713082001</v>
       </c>
       <c r="L6">
-        <v>36.78784185448718</v>
+        <v>42.40838905218527</v>
       </c>
       <c r="M6">
-        <v>-63082.02184443179</v>
+        <v>-32124.4185757937</v>
       </c>
       <c r="N6">
-        <v>-108.5363510182128</v>
+        <v>-55.27196289613071</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>4126.565439999999</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>7.099999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>4242.797033226667</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>7.299983333333333</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>544.4804411595852</v>
+        <v>13904.67036138248</v>
       </c>
       <c r="AB6">
-        <v>0.9368108148148148</v>
+        <v>23.92380806780943</v>
       </c>
       <c r="AC6">
         <v>32742.40632574527</v>
@@ -1550,10 +1550,10 @@
         <v>56.335247385</v>
       </c>
       <c r="AE6">
-        <v>89088.87136673259</v>
+        <v>102700.1130450834</v>
       </c>
       <c r="AF6">
-        <v>153.2826743936966</v>
+        <v>176.701621050772</v>
       </c>
       <c r="AG6">
         <v>28669.31187454527</v>
@@ -1574,10 +1574,10 @@
         <v>3.92448</v>
       </c>
       <c r="AM6">
-        <v>39717.07667043317</v>
+        <v>42983.77467323736</v>
       </c>
       <c r="AN6">
-        <v>68.33558039008719</v>
+        <v>73.95612758778526</v>
       </c>
       <c r="AO6">
         <v>41796.63780862527</v>
@@ -1627,16 +1627,16 @@
         <v>719.7289999999999</v>
       </c>
       <c r="C7">
-        <v>25190.38975242954</v>
+        <v>85827.38362134235</v>
       </c>
       <c r="D7">
-        <v>34.99982597954166</v>
+        <v>119.249583692393</v>
       </c>
       <c r="E7">
-        <v>25895.72066549756</v>
+        <v>88230.55036273993</v>
       </c>
       <c r="F7">
-        <v>35.97982110696883</v>
+        <v>122.58857203578</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1645,22 +1645,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25895.72066549756</v>
+        <v>88230.55036273993</v>
       </c>
       <c r="J7">
-        <v>35.97982110696883</v>
+        <v>122.58857203578</v>
       </c>
       <c r="K7">
-        <v>8027.673406304245</v>
+        <v>27351.47061244938</v>
       </c>
       <c r="L7">
-        <v>11.15374454316034</v>
+        <v>38.00245733109182</v>
       </c>
       <c r="M7">
-        <v>-753353.8001491417</v>
+        <v>-234405.860343976</v>
       </c>
       <c r="N7">
-        <v>-1046.718695716223</v>
+        <v>-325.6862796191011</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1687,22 +1687,22 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>7197.289999999999</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>7206.456348488312</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>10.01273583319321</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>104.3261405805616</v>
+        <v>17960.1992167857</v>
       </c>
       <c r="AB7">
-        <v>0.1449519757861107</v>
+        <v>24.95411358551024</v>
       </c>
       <c r="AC7">
         <v>291486.670089793</v>
@@ -1711,10 +1711,10 @@
         <v>404.9950329774027</v>
       </c>
       <c r="AE7">
-        <v>25895.72066549756</v>
+        <v>88230.55036273993</v>
       </c>
       <c r="AF7">
-        <v>35.97982110696883</v>
+        <v>122.58857203578</v>
       </c>
       <c r="AG7">
         <v>289469.125756993</v>
@@ -1735,10 +1735,10 @@
         <v>1.569792</v>
       </c>
       <c r="AM7">
-        <v>171260.2086565884</v>
+        <v>190584.0058627335</v>
       </c>
       <c r="AN7">
-        <v>237.9509630105059</v>
+        <v>264.7996757984374</v>
       </c>
       <c r="AO7">
         <v>294944.355339393</v>
@@ -1788,16 +1788,16 @@
         <v>678.7559</v>
       </c>
       <c r="C8">
-        <v>58996.21077848639</v>
+        <v>75389.14597457208</v>
       </c>
       <c r="D8">
-        <v>86.91815537586692</v>
+        <v>111.0695995048766</v>
       </c>
       <c r="E8">
-        <v>61592.0440527398</v>
+        <v>78706.26839745326</v>
       </c>
       <c r="F8">
-        <v>90.74255421240507</v>
+        <v>115.9566618830912</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>61592.0440527398</v>
+        <v>78706.26839745326</v>
       </c>
       <c r="J8">
-        <v>90.74255421240507</v>
+        <v>115.9566618830912</v>
       </c>
       <c r="K8">
-        <v>14782.09057265755</v>
+        <v>18889.50441538878</v>
       </c>
       <c r="L8">
-        <v>21.77821301097722</v>
+        <v>27.82959885194189</v>
       </c>
       <c r="M8">
-        <v>-107108.519503503</v>
+        <v>-68510.2887758827</v>
       </c>
       <c r="N8">
-        <v>-157.8012353240731</v>
+        <v>-100.9350913574124</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1854,16 +1854,16 @@
         <v>24.19999999999999</v>
       </c>
       <c r="Y8">
-        <v>16632.26992707227</v>
+        <v>16641.31830619365</v>
       </c>
       <c r="Z8">
-        <v>24.50405208569424</v>
+        <v>24.51738291511521</v>
       </c>
       <c r="AA8">
-        <v>1175.224044782467</v>
+        <v>1226.75045097911</v>
       </c>
       <c r="AB8">
-        <v>1.731438422535211</v>
+        <v>1.807351436619718</v>
       </c>
       <c r="AC8">
         <v>73595.14859390126</v>
@@ -1872,10 +1872,10 @@
         <v>108.426532416</v>
       </c>
       <c r="AE8">
-        <v>61592.0440527398</v>
+        <v>78706.26839745326</v>
       </c>
       <c r="AF8">
-        <v>90.74255421240507</v>
+        <v>115.9566618830912</v>
       </c>
       <c r="AG8">
         <v>40298.09916350125</v>
@@ -1896,10 +1896,10 @@
         <v>27.47136000000001</v>
       </c>
       <c r="AM8">
-        <v>55995.37378524225</v>
+        <v>60102.78762797349</v>
       </c>
       <c r="AN8">
-        <v>82.49707116393721</v>
+        <v>88.54845700490189</v>
       </c>
       <c r="AO8">
         <v>126152.3408955813</v>
@@ -1949,16 +1949,16 @@
         <v>251.1561</v>
       </c>
       <c r="C9">
-        <v>44325.54728121977</v>
+        <v>52221.25614183004</v>
       </c>
       <c r="D9">
-        <v>176.4860470489061</v>
+        <v>207.9235031194944</v>
       </c>
       <c r="E9">
-        <v>44414.19837578222</v>
+        <v>52325.6986541137</v>
       </c>
       <c r="F9">
-        <v>176.839019143004</v>
+        <v>208.3393501257333</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1967,22 +1967,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>44414.19837578222</v>
+        <v>52325.6986541137</v>
       </c>
       <c r="J9">
-        <v>176.839019143004</v>
+        <v>208.3393501257333</v>
       </c>
       <c r="K9">
-        <v>7994.555707640799</v>
+        <v>9418.625757740467</v>
       </c>
       <c r="L9">
-        <v>31.83102344574071</v>
+        <v>37.50108302263201</v>
       </c>
       <c r="M9">
-        <v>-7378.322553672347</v>
+        <v>-7377.168810520629</v>
       </c>
       <c r="N9">
-        <v>-29.37743719412886</v>
+        <v>-29.37284346476406</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2015,16 +2015,16 @@
         <v>7.1</v>
       </c>
       <c r="Y9">
-        <v>1784.997211823123</v>
+        <v>1784.70949962666</v>
       </c>
       <c r="Z9">
-        <v>7.107122669220945</v>
+        <v>7.10597711792252</v>
       </c>
       <c r="AA9">
-        <v>161.3231664091966</v>
+        <v>135.3772805322241</v>
       </c>
       <c r="AB9">
-        <v>0.6423223103448277</v>
+        <v>0.5390164942528733</v>
       </c>
       <c r="AC9">
         <v>8670.875372291339</v>
@@ -2033,10 +2033,10 @@
         <v>34.5238494</v>
       </c>
       <c r="AE9">
-        <v>44414.19837578222</v>
+        <v>52325.6986541137</v>
       </c>
       <c r="AF9">
-        <v>176.839019143004</v>
+        <v>208.3393501257333</v>
       </c>
       <c r="AG9">
         <v>6910.773423491339</v>
@@ -2057,28 +2057,28 @@
         <v>3.924480000000001</v>
       </c>
       <c r="AM9">
-        <v>12850.24591612395</v>
+        <v>14274.31596622362</v>
       </c>
       <c r="AN9">
-        <v>51.16437910974071</v>
+        <v>56.83443868663201</v>
       </c>
       <c r="AO9">
         <v>15448.14959941134</v>
       </c>
       <c r="AP9">
-        <v>23954.06485171107</v>
+        <v>20009.02046190888</v>
       </c>
       <c r="AQ9">
-        <v>9949.900301698721</v>
+        <v>8211.543904664404</v>
       </c>
       <c r="AR9">
-        <v>3958.307711869794</v>
+        <v>3324.000478051049</v>
       </c>
       <c r="AS9">
-        <v>2655.458840158823</v>
+        <v>2253.505102732599</v>
       </c>
       <c r="AT9">
-        <v>7390.39799798374</v>
+        <v>6219.970976460829</v>
       </c>
       <c r="AU9" t="s">
         <v>62</v>
@@ -2110,16 +2110,16 @@
         <v>645.5072</v>
       </c>
       <c r="C10">
-        <v>102478.5083496446</v>
+        <v>124413.9281094219</v>
       </c>
       <c r="D10">
-        <v>158.7565690199035</v>
+        <v>192.7382500294682</v>
       </c>
       <c r="E10">
-        <v>106987.562717029</v>
+        <v>129888.1409462365</v>
       </c>
       <c r="F10">
-        <v>165.7418580567793</v>
+        <v>201.2187330307648</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>106987.562717029</v>
+        <v>129888.1409462365</v>
       </c>
       <c r="J10">
-        <v>165.7418580567793</v>
+        <v>201.2187330307648</v>
       </c>
       <c r="K10">
-        <v>25677.01505208696</v>
+        <v>31173.15382709676</v>
       </c>
       <c r="L10">
-        <v>39.77804593362702</v>
+        <v>48.29249592738356</v>
       </c>
       <c r="M10">
-        <v>-31000.26556786099</v>
+        <v>-28428.19120649435</v>
       </c>
       <c r="N10">
-        <v>-48.02466272701682</v>
+        <v>-44.04008383871528</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2176,16 +2176,16 @@
         <v>8.1</v>
       </c>
       <c r="Y10">
-        <v>5335.778096408275</v>
+        <v>5301.670831492414</v>
       </c>
       <c r="Z10">
-        <v>8.266024137931034</v>
+        <v>8.213186206896552</v>
       </c>
       <c r="AA10">
-        <v>610.2831631103999</v>
+        <v>416.0577927167999</v>
       </c>
       <c r="AB10">
-        <v>0.9454319999999998</v>
+        <v>0.6445439999999998</v>
       </c>
       <c r="AC10">
         <v>46825.99199593535</v>
@@ -2194,10 +2194,10 @@
         <v>72.54139379999998</v>
       </c>
       <c r="AE10">
-        <v>106987.562717029</v>
+        <v>129888.1409462365</v>
       </c>
       <c r="AF10">
-        <v>165.7418580567793</v>
+        <v>201.2187330307648</v>
       </c>
       <c r="AG10">
         <v>43614.15473103935</v>
@@ -2218,28 +2218,28 @@
         <v>2.786380800000001</v>
       </c>
       <c r="AM10">
-        <v>51899.57056981076</v>
+        <v>57395.70934482056</v>
       </c>
       <c r="AN10">
-        <v>80.401226461627</v>
+        <v>88.91567645538355</v>
       </c>
       <c r="AO10">
         <v>54261.00432768576</v>
       </c>
       <c r="AP10">
-        <v>60531.75693248614</v>
+        <v>56884.77943034428</v>
       </c>
       <c r="AQ10">
-        <v>28461.63407497734</v>
+        <v>26722.02729027598</v>
       </c>
       <c r="AR10">
-        <v>6133.432652740978</v>
+        <v>5820.37064949248</v>
       </c>
       <c r="AS10">
-        <v>3843.777673553071</v>
+        <v>3639.313128617208</v>
       </c>
       <c r="AT10">
-        <v>22092.91253121476</v>
+        <v>20703.06836195861</v>
       </c>
       <c r="AU10" t="s">
         <v>66</v>

--- a/iso_simulator/annualSimulation/results/annualResults_summary.xlsx
+++ b/iso_simulator/annualSimulation/results/annualResults_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>GebäudeID</t>
   </si>
@@ -175,118 +175,205 @@
     <t>CoolingSupplySystem</t>
   </si>
   <si>
-    <t>AB123456_1_00</t>
-  </si>
-  <si>
-    <t>AB123456_1_01</t>
-  </si>
-  <si>
-    <t>AB123456_1_02</t>
-  </si>
-  <si>
-    <t>AB123456_1_03</t>
-  </si>
-  <si>
-    <t>AB123456_1_04</t>
-  </si>
-  <si>
-    <t>AB123456_1_05</t>
-  </si>
-  <si>
-    <t>AB123456_1_06</t>
-  </si>
-  <si>
-    <t>AB123456_1_07</t>
-  </si>
-  <si>
-    <t>AB123456_1_08</t>
-  </si>
-  <si>
-    <t>Produktions-, Werkstatt-, Lager- oder Betriebsgebäude</t>
+    <t>AB123456_0_01</t>
+  </si>
+  <si>
+    <t>AB123456_0_02</t>
+  </si>
+  <si>
+    <t>AB123456_0_03</t>
+  </si>
+  <si>
+    <t>AB123456_0_04</t>
+  </si>
+  <si>
+    <t>AB123456_0_05</t>
+  </si>
+  <si>
+    <t>AB123456_0_06</t>
+  </si>
+  <si>
+    <t>AB123456_0_07</t>
+  </si>
+  <si>
+    <t>AB123456_0_08</t>
+  </si>
+  <si>
+    <t>AB123456_0_09</t>
+  </si>
+  <si>
+    <t>AB123456_0_10</t>
+  </si>
+  <si>
+    <t>AB123456_0_11</t>
+  </si>
+  <si>
+    <t>AB123456_0_12</t>
+  </si>
+  <si>
+    <t>AB123456_0_13</t>
+  </si>
+  <si>
+    <t>AB123456_0_14</t>
+  </si>
+  <si>
+    <t>AB123456_0_15</t>
+  </si>
+  <si>
+    <t>AB123456_0_16</t>
+  </si>
+  <si>
+    <t>AB123456_0_17</t>
+  </si>
+  <si>
+    <t>AB123456_0_18</t>
+  </si>
+  <si>
+    <t>AB123456_0_19</t>
+  </si>
+  <si>
+    <t>AB123456_0_20</t>
+  </si>
+  <si>
+    <t>Gebäude für Kultur und Freizeit</t>
+  </si>
+  <si>
+    <t>Handelsgebäude</t>
   </si>
   <si>
     <t>Schule, Kindertagesstätte und sonstiges Betreuungsgebäude</t>
   </si>
   <si>
-    <t>Gebäude für Kultur und Freizeit</t>
-  </si>
-  <si>
-    <t>Beherbergungs- oder Unterbringungsgebäude, Gastronomie- oder Verpflegungsgebäude</t>
-  </si>
-  <si>
     <t>Büro-, Verwaltungs- oder Amtsgebäude</t>
   </si>
   <si>
-    <t>Feuerwehr, Rettungswache</t>
+    <t>Gebäude für Forschung und Hochschullehre</t>
+  </si>
+  <si>
+    <t>Ausstellungsgebäude (Museen, Galerien)</t>
+  </si>
+  <si>
+    <t>von Dienstleistern (z.B. Frisör, Kosmetik) genutztes Ladengebäude</t>
   </si>
   <si>
     <t>KiTa mit Küche</t>
   </si>
   <si>
-    <t>Freizeit-, Gemeinschafts-, Bürgerhaus</t>
-  </si>
-  <si>
-    <t>Speisegaststätte (einfach)</t>
-  </si>
-  <si>
-    <t>Gebäude für industrielle Produktion und Verarbeitung (z.B. Chemie, Metall, Textilien, Lebensmittel, Holz)</t>
-  </si>
-  <si>
     <t>Bürogebäude</t>
   </si>
   <si>
+    <t>KiTa</t>
+  </si>
+  <si>
+    <t>Schule, allgemein</t>
+  </si>
+  <si>
+    <t>Verwaltungs- oder Seminargebäude</t>
+  </si>
+  <si>
+    <t>Institutsgebäude für Forschung und Lehre (Labor mit geringen Anforderungen an die Raumlufttechnik, z.B. Medizin, Informatik)</t>
+  </si>
+  <si>
+    <t>Bibliothek/Archiv (höher technisiert, z.B. Unibibliothek)</t>
+  </si>
+  <si>
+    <t>Berufsbildende Schule (gewerblich, wirtschaftlich)</t>
+  </si>
+  <si>
+    <t>Öffentliches Verwaltungs- oder Ämtergebäude, Rathaus</t>
+  </si>
+  <si>
+    <t>Handelsgebäude des Non-Food-Einzel- und -Großhandels</t>
+  </si>
+  <si>
+    <t>Berufsbildende Schule (mit höherer technischer Ausstattung, z.B. Werkstätten)</t>
+  </si>
+  <si>
+    <t>Bibliothek/Archiv (einfach, z.B. Stadtbücherei)</t>
+  </si>
+  <si>
+    <t>Jugendzentrum</t>
+  </si>
+  <si>
+    <t>Ausstellungshalle</t>
+  </si>
+  <si>
+    <t>Fachgeschaeft</t>
+  </si>
+  <si>
+    <t>Schulzimmer_Hoersaal</t>
+  </si>
+  <si>
     <t>Bueros_SchalterhalleEmpfang</t>
   </si>
   <si>
-    <t>Schulzimmer_Hoersaal</t>
-  </si>
-  <si>
-    <t>Vorstellungsraum</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t>ProduktionGrob</t>
-  </si>
-  <si>
-    <t>Großraumbüro (ab 7 Arbeitsplätze)</t>
+    <t>Bibliothek</t>
+  </si>
+  <si>
+    <t>Ausstellungsräume, Museum</t>
+  </si>
+  <si>
+    <t>Einzelhandel/Kaufhaus</t>
   </si>
   <si>
     <t>Klassenzimmer (Schule), Gruppenraum (Kindergar...</t>
   </si>
   <si>
+    <t>Gruppenbüro (2 bis 6 Arbeitsplätze)</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Bibliothek - Lesesaal</t>
+  </si>
+  <si>
+    <t>Bibliothek - Freihandbereich</t>
+  </si>
+  <si>
     <t>Besprechung/Sitzungszimmer/Seminar</t>
   </si>
   <si>
-    <t>Kantine (Restaurant)</t>
-  </si>
-  <si>
-    <t>Gewerbliche und industrielle Hallen (mittelsch...</t>
-  </si>
-  <si>
-    <t>Gruppenbüro (2 bis 6 Arbeitsplätze)</t>
-  </si>
-  <si>
-    <t>DEU_TH_Erfurt.Binderslebn.AP.105540_TMYx.2004-2018.epw</t>
-  </si>
-  <si>
-    <t>DEU_HE_Frankfurt.AP.106370_TMYx.2004-2018.epw</t>
-  </si>
-  <si>
-    <t>DEU_SN_Leipzig.Halle.AP.104690_TMYx.2004-2018.epw</t>
-  </si>
-  <si>
-    <t>LGasBoilerCondensingFrom95</t>
+    <t>DEU_BB_Holzdorf.AB.104760_TMYx.2004-2018.epw</t>
+  </si>
+  <si>
+    <t>DEU_SN_Dresden.AP.104880_TMYx.2004-2018.epw</t>
+  </si>
+  <si>
+    <t>DEU_BE_Berlin-Schonefeld.AP.103850_TMYx.2004-2018.epw</t>
+  </si>
+  <si>
+    <t>DEU_BE_Berlin-Tegel.AP.103820_TMYx.2004-2018.epw</t>
+  </si>
+  <si>
+    <t>DEU_NI_Fassberg.AB.102460_TMYx.2004-2018.epw</t>
+  </si>
+  <si>
+    <t>DEU_BW_Karlsruhe-Baden-Baden.AP.107275_TMYx.2004-2018.epw</t>
+  </si>
+  <si>
+    <t>DEU_BW_Mannheim.107290_TMYx.2004-2018.epw</t>
   </si>
   <si>
     <t>DistrictHeating</t>
   </si>
   <si>
+    <t>GasBoilerCondensingImproved</t>
+  </si>
+  <si>
+    <t>WoodChipSolidFuelBoiler</t>
+  </si>
+  <si>
+    <t>OilBoilerLowTempFrom95</t>
+  </si>
+  <si>
     <t>OilBoilerCondensingFrom95</t>
   </si>
   <si>
-    <t>GasBoilerCondensingFrom95</t>
+    <t>AirCooledPistonScroll</t>
+  </si>
+  <si>
+    <t>AirCooledPistonScrollMulti</t>
   </si>
   <si>
     <t>NoCooling</t>
@@ -647,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA10"/>
+  <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,19 +906,19 @@
         <v>53</v>
       </c>
       <c r="B2">
-        <v>211.6048</v>
+        <v>3652</v>
       </c>
       <c r="C2">
-        <v>76079.75269086983</v>
+        <v>265092.1558677414</v>
       </c>
       <c r="D2">
-        <v>359.5369891933918</v>
+        <v>72.58821354538374</v>
       </c>
       <c r="E2">
-        <v>79427.26180926812</v>
+        <v>265622.3401794769</v>
       </c>
       <c r="F2">
-        <v>375.3566167179011</v>
+        <v>72.7333899724745</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -840,34 +927,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>79427.26180926812</v>
+        <v>265622.3401794769</v>
       </c>
       <c r="J2">
-        <v>375.3566167179011</v>
+        <v>72.7333899724745</v>
       </c>
       <c r="K2">
-        <v>19062.54283422435</v>
+        <v>47812.02123230584</v>
       </c>
       <c r="L2">
-        <v>90.08558801229627</v>
+        <v>13.09201019504541</v>
       </c>
       <c r="M2">
-        <v>-10931.62729671982</v>
+        <v>-135802.2236584936</v>
       </c>
       <c r="N2">
-        <v>-51.66058282571956</v>
+        <v>-37.18571294044184</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>43807.16892209471</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>11.99539127111027</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>43807.16892209471</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>11.99539127111027</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -876,103 +963,103 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>24532.01459637304</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>6.717419111821751</v>
       </c>
       <c r="W2">
-        <v>1502.39408</v>
+        <v>28120.4</v>
       </c>
       <c r="X2">
-        <v>7.099999999999999</v>
+        <v>7.699999999999999</v>
       </c>
       <c r="Y2">
-        <v>1536.881987016501</v>
+        <v>28142.28823467294</v>
       </c>
       <c r="Z2">
-        <v>7.26298263090677</v>
+        <v>7.705993492517234</v>
       </c>
       <c r="AA2">
-        <v>196.3929541376</v>
+        <v>1973.88100280612</v>
       </c>
       <c r="AB2">
-        <v>0.928112</v>
+        <v>0.5404931552043045</v>
       </c>
       <c r="AC2">
-        <v>7647.08545014216</v>
+        <v>98277.19678511471</v>
       </c>
       <c r="AD2">
-        <v>36.13852545</v>
+        <v>26.91051390611027</v>
       </c>
       <c r="AE2">
-        <v>79427.26180926812</v>
+        <v>265622.3401794769</v>
       </c>
       <c r="AF2">
-        <v>375.3566167179011</v>
+        <v>72.7333899724745</v>
       </c>
       <c r="AG2">
-        <v>6164.159011742159</v>
+        <v>54470.02786302</v>
       </c>
       <c r="AH2">
-        <v>3451.929046575609</v>
+        <v>30503.2156032912</v>
       </c>
       <c r="AI2">
-        <v>16.313094252</v>
+        <v>8.352468675600001</v>
       </c>
       <c r="AJ2">
-        <v>1482.926438400001</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>830.4388055040002</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>3.924480000000001</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>23344.91068630396</v>
+        <v>102847.2514319701</v>
       </c>
       <c r="AN2">
-        <v>110.3231622642963</v>
+        <v>28.16189798246716</v>
       </c>
       <c r="AO2">
-        <v>11621.94490230216</v>
+        <v>94433.86786302</v>
       </c>
       <c r="AP2">
-        <v>39845.41344233113</v>
+        <v>384430.2343143119</v>
       </c>
       <c r="AQ2">
-        <v>13617.53665011352</v>
+        <v>175398.9203491552</v>
       </c>
       <c r="AR2">
-        <v>8745.084869859127</v>
+        <v>35853.29352869327</v>
       </c>
       <c r="AS2">
-        <v>5904.266861333806</v>
+        <v>25689.29399135349</v>
       </c>
       <c r="AT2">
-        <v>11578.52506102467</v>
+        <v>147488.72644511</v>
       </c>
       <c r="AU2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AV2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AW2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AX2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AY2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="AZ2" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="BA2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -980,19 +1067,19 @@
         <v>54</v>
       </c>
       <c r="B3">
-        <v>690.2639999999999</v>
+        <v>169.32</v>
       </c>
       <c r="C3">
-        <v>228669.6487221458</v>
+        <v>24545.9505137526</v>
       </c>
       <c r="D3">
-        <v>331.2785379538058</v>
+        <v>144.9678154603863</v>
       </c>
       <c r="E3">
-        <v>229126.9880195901</v>
+        <v>25233.23712813767</v>
       </c>
       <c r="F3">
-        <v>331.9410950297134</v>
+        <v>149.0269142932771</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1001,34 +1088,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>229126.9880195901</v>
+        <v>25233.23712813767</v>
       </c>
       <c r="J3">
-        <v>331.9410950297134</v>
+        <v>149.0269142932771</v>
       </c>
       <c r="K3">
-        <v>41242.85784352622</v>
+        <v>6055.976910753041</v>
       </c>
       <c r="L3">
-        <v>59.74939710534842</v>
+        <v>35.7664594303865</v>
       </c>
       <c r="M3">
-        <v>-19068.40789000158</v>
+        <v>-9011.850629051063</v>
       </c>
       <c r="N3">
-        <v>-27.62480426329866</v>
+        <v>-53.22378117795336</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2907.048590016472</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>17.16896167030754</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2907.048590016472</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>17.16896167030754</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1037,103 +1124,103 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>697.6916616039533</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>4.120550800873809</v>
       </c>
       <c r="W3">
-        <v>11941.5672</v>
+        <v>1083.648</v>
       </c>
       <c r="X3">
-        <v>17.3</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="Y3">
-        <v>11957.81677241365</v>
+        <v>1095.956411594539</v>
       </c>
       <c r="Z3">
-        <v>17.32354109791855</v>
+        <v>6.472693193920029</v>
       </c>
       <c r="AA3">
-        <v>1465.38644026243</v>
+        <v>108.4546895930293</v>
       </c>
       <c r="AB3">
-        <v>2.122936210294076</v>
+        <v>0.6405308858553588</v>
       </c>
       <c r="AC3">
-        <v>19846.29498696215</v>
+        <v>7547.679502654169</v>
       </c>
       <c r="AD3">
-        <v>28.75174568999999</v>
+        <v>44.57642040310754</v>
       </c>
       <c r="AE3">
-        <v>229126.9880195901</v>
+        <v>25233.23712813767</v>
       </c>
       <c r="AF3">
-        <v>331.9410950297134</v>
+        <v>149.0269142932771</v>
       </c>
       <c r="AG3">
-        <v>18395.08395336215</v>
+        <v>4403.312000637697</v>
       </c>
       <c r="AH3">
-        <v>10301.2470138828</v>
+        <v>2465.85472035711</v>
       </c>
       <c r="AI3">
-        <v>14.9236335864</v>
+        <v>14.563280890368</v>
       </c>
       <c r="AJ3">
-        <v>1451.2110336</v>
+        <v>237.3189120000001</v>
       </c>
       <c r="AK3">
-        <v>812.6781788159999</v>
+        <v>132.8985907200001</v>
       </c>
       <c r="AL3">
-        <v>1.177344</v>
+        <v>0.7848960000000005</v>
       </c>
       <c r="AM3">
-        <v>52356.78303622502</v>
+        <v>9352.421883434105</v>
       </c>
       <c r="AN3">
-        <v>75.85037469174843</v>
+        <v>55.23518712162831</v>
       </c>
       <c r="AO3">
-        <v>27786.16743144216</v>
+        <v>7252.324947837697</v>
       </c>
       <c r="AP3">
-        <v>75291.01099009132</v>
+        <v>30407.35936196332</v>
       </c>
       <c r="AQ3">
-        <v>28088.41011621229</v>
+        <v>17377.6548269166</v>
       </c>
       <c r="AR3">
-        <v>14209.7246592365</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>9507.755731165995</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>23485.12048347655</v>
+        <v>13029.70453504673</v>
       </c>
       <c r="AU3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AV3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AW3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AX3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AY3" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AZ3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="BA3" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -1141,19 +1228,19 @@
         <v>55</v>
       </c>
       <c r="B4">
-        <v>91.4131</v>
+        <v>1702.8</v>
       </c>
       <c r="C4">
-        <v>54035.40589132848</v>
+        <v>226698.8927355323</v>
       </c>
       <c r="D4">
-        <v>591.1122792174041</v>
+        <v>133.133011942408</v>
       </c>
       <c r="E4">
-        <v>55548.39725628567</v>
+        <v>233046.4617321272</v>
       </c>
       <c r="F4">
-        <v>607.6634230354913</v>
+        <v>136.8607362767954</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1162,22 +1249,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>55548.39725628567</v>
+        <v>233046.4617321272</v>
       </c>
       <c r="J4">
-        <v>607.6634230354913</v>
+        <v>136.8607362767954</v>
       </c>
       <c r="K4">
-        <v>17220.00314944856</v>
+        <v>55931.15081571052</v>
       </c>
       <c r="L4">
-        <v>188.3756611410023</v>
+        <v>32.84657670643089</v>
       </c>
       <c r="M4">
-        <v>-16731.51865307658</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>-183.0319577071184</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1204,97 +1291,97 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>914.131</v>
+        <v>29458.44000000001</v>
       </c>
       <c r="X4">
-        <v>10</v>
+        <v>17.3</v>
       </c>
       <c r="Y4">
-        <v>920.3545305074829</v>
+        <v>29906.94340208901</v>
       </c>
       <c r="Z4">
-        <v>10.06808138557256</v>
+        <v>17.56339170900224</v>
       </c>
       <c r="AA4">
-        <v>70.8326679330217</v>
+        <v>3951.955691549988</v>
       </c>
       <c r="AB4">
-        <v>0.774863426937952</v>
+        <v>2.320857230179697</v>
       </c>
       <c r="AC4">
-        <v>56509.04430121201</v>
+        <v>29708.943829092</v>
       </c>
       <c r="AD4">
-        <v>618.1722783847392</v>
+        <v>17.44711289</v>
       </c>
       <c r="AE4">
-        <v>55548.39725628567</v>
+        <v>233046.4617321272</v>
       </c>
       <c r="AF4">
-        <v>607.6634230354913</v>
+        <v>136.8607362767954</v>
       </c>
       <c r="AG4">
-        <v>56252.79509929201</v>
+        <v>26128.977109092</v>
       </c>
       <c r="AH4">
-        <v>31501.56525560353</v>
+        <v>14632.22718109152</v>
       </c>
       <c r="AI4">
-        <v>344.606683895454</v>
+        <v>8.593039218400001</v>
       </c>
       <c r="AJ4">
-        <v>256.2492019200002</v>
+        <v>3579.966719999999</v>
       </c>
       <c r="AK4">
-        <v>143.4995530752001</v>
+        <v>2004.781363199999</v>
       </c>
       <c r="AL4">
-        <v>1.569792000000001</v>
+        <v>1.177344</v>
       </c>
       <c r="AM4">
-        <v>48865.06795812729</v>
+        <v>72568.15936000204</v>
       </c>
       <c r="AN4">
-        <v>534.5521370364563</v>
+        <v>42.61695992483089</v>
       </c>
       <c r="AO4">
-        <v>61272.26610265202</v>
+        <v>59573.678725092</v>
       </c>
       <c r="AP4">
-        <v>43610.10583722587</v>
+        <v>63439.1779625477</v>
       </c>
       <c r="AQ4">
-        <v>21618.53955698542</v>
+        <v>22226.51623813139</v>
       </c>
       <c r="AR4">
-        <v>2368.128494002052</v>
+        <v>14416.22348020415</v>
       </c>
       <c r="AS4">
-        <v>1598.947838085404</v>
+        <v>9649.999230752099</v>
       </c>
       <c r="AT4">
-        <v>18024.48994815299</v>
+        <v>17146.43901346005</v>
       </c>
       <c r="AU4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AV4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AW4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AX4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AY4" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="AZ4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="BA4" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -1302,19 +1389,19 @@
         <v>56</v>
       </c>
       <c r="B5">
-        <v>664.6451</v>
+        <v>236.236675</v>
       </c>
       <c r="C5">
-        <v>246966.0511828376</v>
+        <v>35758.48249184313</v>
       </c>
       <c r="D5">
-        <v>371.5758247263654</v>
+        <v>151.3671934801958</v>
       </c>
       <c r="E5">
-        <v>253881.100615957</v>
+        <v>37760.95751138635</v>
       </c>
       <c r="F5">
-        <v>381.9799478187036</v>
+        <v>159.8437563150868</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1323,22 +1410,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>253881.100615957</v>
+        <v>37760.95751138635</v>
       </c>
       <c r="J5">
-        <v>381.9799478187036</v>
+        <v>159.8437563150868</v>
       </c>
       <c r="K5">
-        <v>78703.14119094668</v>
+        <v>755.2191502277269</v>
       </c>
       <c r="L5">
-        <v>118.4137838237981</v>
+        <v>3.196875126301735</v>
       </c>
       <c r="M5">
-        <v>-19849.72800677411</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-29.86515360870653</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1365,97 +1452,97 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>52506.96290000001</v>
+        <v>1913.5170675</v>
       </c>
       <c r="X5">
-        <v>79.00000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="Y5">
-        <v>53488.97833993503</v>
+        <v>1960.412491315172</v>
       </c>
       <c r="Z5">
-        <v>80.47750346754235</v>
+        <v>8.298510344827585</v>
       </c>
       <c r="AA5">
-        <v>11176.73858566045</v>
+        <v>17.68627412457931</v>
       </c>
       <c r="AB5">
-        <v>16.8161001798711</v>
+        <v>0.07486675862068964</v>
       </c>
       <c r="AC5">
-        <v>48854.02451252063</v>
+        <v>11008.85988766572</v>
       </c>
       <c r="AD5">
-        <v>73.5039264</v>
+        <v>46.60097712459644</v>
       </c>
       <c r="AE5">
-        <v>253881.100615957</v>
+        <v>37760.95751138635</v>
       </c>
       <c r="AF5">
-        <v>381.9799478187036</v>
+        <v>159.8437563150868</v>
       </c>
       <c r="AG5">
-        <v>45127.75822388064</v>
+        <v>9833.421788601723</v>
       </c>
       <c r="AH5">
-        <v>25271.54460537315</v>
+        <v>5506.716201616965</v>
       </c>
       <c r="AI5">
-        <v>38.022614784</v>
+        <v>23.31016638977401</v>
       </c>
       <c r="AJ5">
-        <v>3726.26628864</v>
+        <v>1175.438099064</v>
       </c>
       <c r="AK5">
-        <v>2086.7091216384</v>
+        <v>658.2453354758403</v>
       </c>
       <c r="AL5">
-        <v>3.139584000000001</v>
+        <v>2.786380800000001</v>
       </c>
       <c r="AM5">
-        <v>106061.3949179582</v>
+        <v>6920.180687320531</v>
       </c>
       <c r="AN5">
-        <v>159.5759826077981</v>
+        <v>29.29342231607574</v>
       </c>
       <c r="AO5">
-        <v>52693.40524573664</v>
+        <v>15706.01514879432</v>
       </c>
       <c r="AP5">
-        <v>51157.71129149164</v>
+        <v>25538.05250302578</v>
       </c>
       <c r="AQ5">
-        <v>24093.34654821123</v>
+        <v>10402.35791321759</v>
       </c>
       <c r="AR5">
-        <v>4911.914497344042</v>
+        <v>4416.739580693136</v>
       </c>
       <c r="AS5">
-        <v>3423.393550588788</v>
+        <v>2749.866001653279</v>
       </c>
       <c r="AT5">
-        <v>18729.05669534759</v>
+        <v>7969.089007461778</v>
       </c>
       <c r="AU5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AV5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AX5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AY5" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="AZ5" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="BA5" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -1463,19 +1550,19 @@
         <v>57</v>
       </c>
       <c r="B6">
-        <v>581.2064</v>
+        <v>310.46</v>
       </c>
       <c r="C6">
-        <v>97438.4374241778</v>
+        <v>52989.81815390744</v>
       </c>
       <c r="D6">
-        <v>167.6485968223643</v>
+        <v>170.6816277585114</v>
       </c>
       <c r="E6">
-        <v>102700.1130450834</v>
+        <v>54473.53306221685</v>
       </c>
       <c r="F6">
-        <v>176.701621050772</v>
+        <v>175.4607133357497</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1484,22 +1571,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>102700.1130450834</v>
+        <v>54473.53306221685</v>
       </c>
       <c r="J6">
-        <v>176.701621050772</v>
+        <v>175.4607133357497</v>
       </c>
       <c r="K6">
-        <v>24648.02713082001</v>
+        <v>13073.64793493205</v>
       </c>
       <c r="L6">
-        <v>42.40838905218527</v>
+        <v>42.11057120057993</v>
       </c>
       <c r="M6">
-        <v>-32124.4185757937</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-55.27196289613071</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1526,97 +1613,97 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>5370.958000000001</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>5467.744387629344</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>17.61175155456208</v>
       </c>
       <c r="AA6">
-        <v>13904.67036138248</v>
+        <v>852.8263412825593</v>
       </c>
       <c r="AB6">
-        <v>23.92380806780943</v>
+        <v>2.746976555055593</v>
       </c>
       <c r="AC6">
-        <v>32742.40632574527</v>
+        <v>2846.1068461236</v>
       </c>
       <c r="AD6">
-        <v>56.335247385</v>
+        <v>9.167386607368421</v>
       </c>
       <c r="AE6">
-        <v>102700.1130450834</v>
+        <v>54473.53306221685</v>
       </c>
       <c r="AF6">
-        <v>176.701621050772</v>
+        <v>175.4607133357497</v>
       </c>
       <c r="AG6">
-        <v>28669.31187454527</v>
+        <v>2193.3957421236</v>
       </c>
       <c r="AH6">
-        <v>16054.81464974535</v>
+        <v>1228.301615589216</v>
       </c>
       <c r="AI6">
-        <v>27.6232585356</v>
+        <v>3.956392500126317</v>
       </c>
       <c r="AJ6">
-        <v>4073.094451200001</v>
+        <v>652.7111039999999</v>
       </c>
       <c r="AK6">
-        <v>2280.932892672</v>
+        <v>365.5182182399999</v>
       </c>
       <c r="AL6">
-        <v>3.92448</v>
+        <v>1.177344</v>
       </c>
       <c r="AM6">
-        <v>42983.77467323736</v>
+        <v>14667.46776876126</v>
       </c>
       <c r="AN6">
-        <v>73.95612758778526</v>
+        <v>47.24430770070625</v>
       </c>
       <c r="AO6">
-        <v>41796.63780862527</v>
+        <v>8505.7570933236</v>
       </c>
       <c r="AP6">
-        <v>51752.07621622165</v>
+        <v>28219.94903743848</v>
       </c>
       <c r="AQ6">
-        <v>18698.23291323496</v>
+        <v>10947.88421205484</v>
       </c>
       <c r="AR6">
-        <v>10093.9033988981</v>
+        <v>3819.849601595467</v>
       </c>
       <c r="AS6">
-        <v>6845.733575622259</v>
+        <v>5309.690163422063</v>
       </c>
       <c r="AT6">
-        <v>16114.20632846632</v>
+        <v>8142.52506036611</v>
       </c>
       <c r="AU6" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AV6" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="AW6" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AX6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AY6" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AZ6" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="BA6" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -1624,19 +1711,19 @@
         <v>58</v>
       </c>
       <c r="B7">
-        <v>719.7289999999999</v>
+        <v>3499.2</v>
       </c>
       <c r="C7">
-        <v>85827.38362134235</v>
+        <v>498781.5763288793</v>
       </c>
       <c r="D7">
-        <v>119.249583692393</v>
+        <v>142.5416027460218</v>
       </c>
       <c r="E7">
-        <v>88230.55036273993</v>
+        <v>499779.1394815371</v>
       </c>
       <c r="F7">
-        <v>122.58857203578</v>
+        <v>142.8266859515138</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1645,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>88230.55036273993</v>
+        <v>499779.1394815371</v>
       </c>
       <c r="J7">
-        <v>122.58857203578</v>
+        <v>142.8266859515138</v>
       </c>
       <c r="K7">
-        <v>27351.47061244938</v>
+        <v>89960.24510667668</v>
       </c>
       <c r="L7">
-        <v>38.00245733109182</v>
+        <v>25.70880347127249</v>
       </c>
       <c r="M7">
-        <v>-234405.860343976</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>-325.6862796191011</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1699,85 +1786,85 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>17960.1992167857</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>24.95411358551024</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>291486.670089793</v>
+        <v>26030.32720546175</v>
       </c>
       <c r="AD7">
-        <v>404.9950329774027</v>
+        <v>7.438936672799998</v>
       </c>
       <c r="AE7">
-        <v>88230.55036273993</v>
+        <v>499779.1394815371</v>
       </c>
       <c r="AF7">
-        <v>122.58857203578</v>
+        <v>142.8266859515138</v>
       </c>
       <c r="AG7">
-        <v>289469.125756993</v>
+        <v>18673.60912546176</v>
       </c>
       <c r="AH7">
-        <v>162102.7104239161</v>
+        <v>10457.22111025858</v>
       </c>
       <c r="AI7">
-        <v>225.2274264673455</v>
+        <v>2.988460536767999</v>
       </c>
       <c r="AJ7">
-        <v>2017.5443328</v>
+        <v>7356.718079999996</v>
       </c>
       <c r="AK7">
-        <v>1129.824826368</v>
+        <v>4119.762124799998</v>
       </c>
       <c r="AL7">
-        <v>1.569792</v>
+        <v>1.177344</v>
       </c>
       <c r="AM7">
-        <v>190584.0058627335</v>
+        <v>104537.2283417353</v>
       </c>
       <c r="AN7">
-        <v>264.7996757984374</v>
+        <v>29.87460800804049</v>
       </c>
       <c r="AO7">
-        <v>294944.355339393</v>
+        <v>80432.77494946176</v>
       </c>
       <c r="AP7">
-        <v>71497.39764303733</v>
+        <v>495131.2762211172</v>
       </c>
       <c r="AQ7">
-        <v>22754.63030321467</v>
+        <v>218803.0884210612</v>
       </c>
       <c r="AR7">
-        <v>17303.05882177193</v>
+        <v>110395.8579236734</v>
       </c>
       <c r="AS7">
-        <v>11734.82827592438</v>
+        <v>67851.82960903447</v>
       </c>
       <c r="AT7">
-        <v>19704.88024212635</v>
+        <v>98080.50026734806</v>
       </c>
       <c r="AU7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AV7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="AW7" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AX7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AY7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="AZ7" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="BA7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -1785,19 +1872,19 @@
         <v>59</v>
       </c>
       <c r="B8">
-        <v>678.7559</v>
+        <v>12282.66</v>
       </c>
       <c r="C8">
-        <v>75389.14597457208</v>
+        <v>1480091.251596438</v>
       </c>
       <c r="D8">
-        <v>111.0695995048766</v>
+        <v>120.502501216873</v>
       </c>
       <c r="E8">
-        <v>78706.26839745326</v>
+        <v>1483051.43409963</v>
       </c>
       <c r="F8">
-        <v>115.9566618830912</v>
+        <v>120.7435062193068</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1806,34 +1893,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>78706.26839745326</v>
+        <v>1483051.43409963</v>
       </c>
       <c r="J8">
-        <v>115.9566618830912</v>
+        <v>120.7435062193068</v>
       </c>
       <c r="K8">
-        <v>18889.50441538878</v>
+        <v>266949.2581379335</v>
       </c>
       <c r="L8">
-        <v>27.82959885194189</v>
+        <v>21.73383111947522</v>
       </c>
       <c r="M8">
-        <v>-68510.2887758827</v>
+        <v>-224314.2946883304</v>
       </c>
       <c r="N8">
-        <v>-100.9350913574124</v>
+        <v>-18.26268045263244</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>72359.44989946138</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5.891187242784656</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>72359.44989946138</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>5.891187242784656</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1842,103 +1929,103 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>40521.29194369838</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>3.299064855959408</v>
       </c>
       <c r="W8">
-        <v>16425.89277999999</v>
+        <v>82293.822</v>
       </c>
       <c r="X8">
-        <v>24.19999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="Y8">
-        <v>16641.31830619365</v>
+        <v>82381.75622444446</v>
       </c>
       <c r="Z8">
-        <v>24.51738291511521</v>
+        <v>6.707159216687954</v>
       </c>
       <c r="AA8">
-        <v>1226.75045097911</v>
+        <v>7929.908360400002</v>
       </c>
       <c r="AB8">
-        <v>1.807351436619718</v>
+        <v>0.6456181609195404</v>
       </c>
       <c r="AC8">
-        <v>73595.14859390126</v>
+        <v>368919.5518660516</v>
       </c>
       <c r="AD8">
-        <v>108.426532416</v>
+        <v>30.0358026572462</v>
       </c>
       <c r="AE8">
-        <v>78706.26839745326</v>
+        <v>1483051.43409963</v>
       </c>
       <c r="AF8">
-        <v>115.9566618830912</v>
+        <v>120.7435062193068</v>
       </c>
       <c r="AG8">
-        <v>40298.09916350125</v>
+        <v>235445.5162577902</v>
       </c>
       <c r="AH8">
-        <v>22566.9355315607</v>
+        <v>131849.4891043625</v>
       </c>
       <c r="AI8">
-        <v>33.24749815295999</v>
+        <v>10.73460383209846</v>
       </c>
       <c r="AJ8">
-        <v>33297.04943040002</v>
+        <v>61114.58570879999</v>
       </c>
       <c r="AK8">
-        <v>18646.34768102401</v>
+        <v>34224.16799692799</v>
       </c>
       <c r="AL8">
-        <v>27.47136000000001</v>
+        <v>2.786380799999999</v>
       </c>
       <c r="AM8">
-        <v>60102.78762797349</v>
+        <v>473544.2071829224</v>
       </c>
       <c r="AN8">
-        <v>88.54845700490189</v>
+        <v>38.5538806075331</v>
       </c>
       <c r="AO8">
-        <v>126152.3408955813</v>
+        <v>464291.7785677101</v>
       </c>
       <c r="AP8">
-        <v>140012.880084</v>
+        <v>959337.4055970223</v>
       </c>
       <c r="AQ8">
-        <v>19871.21455193221</v>
+        <v>429202.3676227272</v>
       </c>
       <c r="AR8">
-        <v>61344.78368285499</v>
+        <v>107554.0304216747</v>
       </c>
       <c r="AS8">
-        <v>41557.41387528904</v>
+        <v>70106.0017399862</v>
       </c>
       <c r="AT8">
-        <v>17239.46797392371</v>
+        <v>352475.0058126343</v>
       </c>
       <c r="AU8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AV8" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AW8" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AX8" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="AY8" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="AZ8" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="BA8" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -1946,19 +2033,19 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>251.1561</v>
+        <v>4400.025000000001</v>
       </c>
       <c r="C9">
-        <v>52221.25614183004</v>
+        <v>1672850.318619978</v>
       </c>
       <c r="D9">
-        <v>207.9235031194944</v>
+        <v>380.1910940551422</v>
       </c>
       <c r="E9">
-        <v>52325.6986541137</v>
+        <v>1676196.019257218</v>
       </c>
       <c r="F9">
-        <v>208.3393501257333</v>
+        <v>380.9514762432526</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1967,34 +2054,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>52325.6986541137</v>
+        <v>1676196.019257218</v>
       </c>
       <c r="J9">
-        <v>208.3393501257333</v>
+        <v>380.9514762432526</v>
       </c>
       <c r="K9">
-        <v>9418.625757740467</v>
+        <v>301715.2834662992</v>
       </c>
       <c r="L9">
-        <v>37.50108302263201</v>
+        <v>68.57126572378546</v>
       </c>
       <c r="M9">
-        <v>-7377.168810520629</v>
+        <v>-171498.5349180346</v>
       </c>
       <c r="N9">
-        <v>-29.37284346476406</v>
+        <v>-38.97671829547208</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>55322.10803807564</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>12.57313493402324</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>55322.10803807564</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>12.57313493402324</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2003,103 +2090,103 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>30980.38050132236</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>7.040955563053016</v>
       </c>
       <c r="W9">
-        <v>1783.20831</v>
+        <v>33440.19000000001</v>
       </c>
       <c r="X9">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="Y9">
-        <v>1784.70949962666</v>
+        <v>33486.66086525097</v>
       </c>
       <c r="Z9">
-        <v>7.10597711792252</v>
+        <v>7.610561500275786</v>
       </c>
       <c r="AA9">
-        <v>135.3772805322241</v>
+        <v>4190.742628332048</v>
       </c>
       <c r="AB9">
-        <v>0.5390164942528733</v>
+        <v>0.9524360948703807</v>
       </c>
       <c r="AC9">
-        <v>8670.875372291339</v>
+        <v>148787.6351795898</v>
       </c>
       <c r="AD9">
-        <v>34.5238494</v>
+        <v>33.81517950002324</v>
       </c>
       <c r="AE9">
-        <v>52325.6986541137</v>
+        <v>1676196.019257218</v>
       </c>
       <c r="AF9">
-        <v>208.3393501257333</v>
+        <v>380.9514762432526</v>
       </c>
       <c r="AG9">
-        <v>6910.773423491339</v>
+        <v>51837.77062151417</v>
       </c>
       <c r="AH9">
-        <v>3870.03311715515</v>
+        <v>29029.15154804794</v>
       </c>
       <c r="AI9">
-        <v>15.408875664</v>
+        <v>6.597496956960001</v>
       </c>
       <c r="AJ9">
-        <v>1760.101948800001</v>
+        <v>41627.75652000002</v>
       </c>
       <c r="AK9">
-        <v>985.6570913280003</v>
+        <v>23311.54365120001</v>
       </c>
       <c r="AL9">
-        <v>3.924480000000001</v>
+        <v>5.298048000000001</v>
       </c>
       <c r="AM9">
-        <v>14274.31596622362</v>
+        <v>385036.3591668695</v>
       </c>
       <c r="AN9">
-        <v>56.83443868663201</v>
+        <v>87.50776624379849</v>
       </c>
       <c r="AO9">
-        <v>15448.14959941134</v>
+        <v>222287.7529150142</v>
       </c>
       <c r="AP9">
-        <v>20009.02046190888</v>
+        <v>646142.3104292367</v>
       </c>
       <c r="AQ9">
-        <v>8211.543904664404</v>
+        <v>262441.3658755373</v>
       </c>
       <c r="AR9">
-        <v>3324.000478051049</v>
+        <v>110550.8637381695</v>
       </c>
       <c r="AS9">
-        <v>2253.505102732599</v>
+        <v>69104.28527754921</v>
       </c>
       <c r="AT9">
-        <v>6219.970976460829</v>
+        <v>204045.7955379807</v>
       </c>
       <c r="AU9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AV9" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="AW9" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AX9" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AY9" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="AZ9" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="BA9" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -2107,19 +2194,19 @@
         <v>61</v>
       </c>
       <c r="B10">
-        <v>645.5072</v>
+        <v>2253.6</v>
       </c>
       <c r="C10">
-        <v>124413.9281094219</v>
+        <v>455960.1523234869</v>
       </c>
       <c r="D10">
-        <v>192.7382500294682</v>
+        <v>202.3252362102799</v>
       </c>
       <c r="E10">
-        <v>129888.1409462365</v>
+        <v>456872.0726281338</v>
       </c>
       <c r="F10">
-        <v>201.2187330307648</v>
+        <v>202.7298866827005</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2128,34 +2215,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>129888.1409462365</v>
+        <v>456872.0726281338</v>
       </c>
       <c r="J10">
-        <v>201.2187330307648</v>
+        <v>202.7298866827005</v>
       </c>
       <c r="K10">
-        <v>31173.15382709676</v>
+        <v>82236.97307306407</v>
       </c>
       <c r="L10">
-        <v>48.29249592738356</v>
+        <v>36.49137960288608</v>
       </c>
       <c r="M10">
-        <v>-28428.19120649435</v>
+        <v>-35506.59939047924</v>
       </c>
       <c r="N10">
-        <v>-44.04008383871528</v>
+        <v>-15.75550203695387</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>11453.74173886427</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>5.082420011920603</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>11453.74173886427</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>5.082420011920603</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2164,103 +2251,1874 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>6414.095373763992</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2.846155206675538</v>
       </c>
       <c r="W10">
-        <v>5228.608319999999</v>
+        <v>11268</v>
       </c>
       <c r="X10">
+        <v>4.999999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>11283.15244567016</v>
+      </c>
+      <c r="Z10">
+        <v>5.006723662437948</v>
+      </c>
+      <c r="AA10">
+        <v>1366.447550535025</v>
+      </c>
+      <c r="AB10">
+        <v>0.6063398786541643</v>
+      </c>
+      <c r="AC10">
+        <v>48530.53273549787</v>
+      </c>
+      <c r="AD10">
+        <v>21.5346701879206</v>
+      </c>
+      <c r="AE10">
+        <v>456872.0726281338</v>
+      </c>
+      <c r="AF10">
+        <v>202.7298866827005</v>
+      </c>
+      <c r="AG10">
+        <v>37076.79099663359</v>
+      </c>
+      <c r="AH10">
+        <v>20763.00295811482</v>
+      </c>
+      <c r="AI10">
+        <v>9.213260098560001</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>109414.0714049429</v>
+      </c>
+      <c r="AN10">
+        <v>48.55079490812162</v>
+      </c>
+      <c r="AO10">
+        <v>59235.2769966336</v>
+      </c>
+      <c r="AP10">
+        <v>207719.0709150232</v>
+      </c>
+      <c r="AQ10">
+        <v>78324.64723984782</v>
+      </c>
+      <c r="AR10">
+        <v>39557.43142313005</v>
+      </c>
+      <c r="AS10">
+        <v>25198.03731382548</v>
+      </c>
+      <c r="AT10">
+        <v>64638.95493821988</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>10925.46</v>
+      </c>
+      <c r="C11">
+        <v>4208702.201467565</v>
+      </c>
+      <c r="D11">
+        <v>385.2196796718459</v>
+      </c>
+      <c r="E11">
+        <v>4217119.605870501</v>
+      </c>
+      <c r="F11">
+        <v>385.9901190311897</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>4217119.605870501</v>
+      </c>
+      <c r="J11">
+        <v>385.9901190311897</v>
+      </c>
+      <c r="K11">
+        <v>759081.5290566902</v>
+      </c>
+      <c r="L11">
+        <v>69.47822142561414</v>
+      </c>
+      <c r="M11">
+        <v>-444181.6713898591</v>
+      </c>
+      <c r="N11">
+        <v>-40.65564940879919</v>
+      </c>
+      <c r="O11">
+        <v>143284.410125761</v>
+      </c>
+      <c r="P11">
+        <v>13.11472561574167</v>
+      </c>
+      <c r="Q11">
+        <v>143284.410125761</v>
+      </c>
+      <c r="R11">
+        <v>13.11472561574167</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>80239.26967042618</v>
+      </c>
+      <c r="V11">
+        <v>7.344246344815338</v>
+      </c>
+      <c r="W11">
+        <v>83033.49600000001</v>
+      </c>
+      <c r="X11">
+        <v>7.600000000000001</v>
+      </c>
+      <c r="Y11">
+        <v>83152.75646529729</v>
+      </c>
+      <c r="Z11">
+        <v>7.610915830115831</v>
+      </c>
+      <c r="AA11">
+        <v>10754.90876051027</v>
+      </c>
+      <c r="AB11">
+        <v>0.98438955984556</v>
+      </c>
+      <c r="AC11">
+        <v>371233.5467544706</v>
+      </c>
+      <c r="AD11">
+        <v>33.97875666145595</v>
+      </c>
+      <c r="AE11">
+        <v>4217119.605870501</v>
+      </c>
+      <c r="AF11">
+        <v>385.9901190311897</v>
+      </c>
+      <c r="AG11">
+        <v>124585.5446607096</v>
+      </c>
+      <c r="AH11">
+        <v>69767.90500999737</v>
+      </c>
+      <c r="AI11">
+        <v>6.3858093856</v>
+      </c>
+      <c r="AJ11">
+        <v>103363.591968</v>
+      </c>
+      <c r="AK11">
+        <v>57883.61150207998</v>
+      </c>
+      <c r="AL11">
+        <v>5.298047999999999</v>
+      </c>
+      <c r="AM11">
+        <v>966972.3152391936</v>
+      </c>
+      <c r="AN11">
+        <v>88.50632515602946</v>
+      </c>
+      <c r="AO11">
+        <v>520948.5396411096</v>
+      </c>
+      <c r="AP11">
+        <v>1676489.267179073</v>
+      </c>
+      <c r="AQ11">
+        <v>515354.4907472877</v>
+      </c>
+      <c r="AR11">
+        <v>459564.080443006</v>
+      </c>
+      <c r="AS11">
+        <v>292578.2744699957</v>
+      </c>
+      <c r="AT11">
+        <v>408992.4215187834</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>3452.8275</v>
+      </c>
+      <c r="C12">
+        <v>159570.8567484584</v>
+      </c>
+      <c r="D12">
+        <v>46.21454641115388</v>
+      </c>
+      <c r="E12">
+        <v>159889.9984619554</v>
+      </c>
+      <c r="F12">
+        <v>46.3069755039762</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>159889.9984619554</v>
+      </c>
+      <c r="J12">
+        <v>46.3069755039762</v>
+      </c>
+      <c r="K12">
+        <v>28780.19972315197</v>
+      </c>
+      <c r="L12">
+        <v>8.335255590715716</v>
+      </c>
+      <c r="M12">
+        <v>-124576.695480835</v>
+      </c>
+      <c r="N12">
+        <v>-36.07961749633741</v>
+      </c>
+      <c r="O12">
+        <v>40186.03080026934</v>
+      </c>
+      <c r="P12">
+        <v>11.6385862891411</v>
+      </c>
+      <c r="Q12">
+        <v>40186.03080026934</v>
+      </c>
+      <c r="R12">
+        <v>11.6385862891411</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>22504.17724815083</v>
+      </c>
+      <c r="V12">
+        <v>6.517608321919017</v>
+      </c>
+      <c r="W12">
+        <v>27967.90275</v>
+      </c>
+      <c r="X12">
         <v>8.1</v>
       </c>
-      <c r="Y10">
-        <v>5301.670831492414</v>
-      </c>
-      <c r="Z10">
-        <v>8.213186206896552</v>
-      </c>
-      <c r="AA10">
-        <v>416.0577927167999</v>
-      </c>
-      <c r="AB10">
-        <v>0.6445439999999998</v>
-      </c>
-      <c r="AC10">
-        <v>46825.99199593535</v>
-      </c>
-      <c r="AD10">
-        <v>72.54139379999998</v>
-      </c>
-      <c r="AE10">
-        <v>129888.1409462365</v>
-      </c>
-      <c r="AF10">
-        <v>201.2187330307648</v>
-      </c>
-      <c r="AG10">
-        <v>43614.15473103935</v>
-      </c>
-      <c r="AH10">
-        <v>24423.92664938204</v>
-      </c>
-      <c r="AI10">
-        <v>37.83679972799999</v>
-      </c>
-      <c r="AJ10">
-        <v>3211.837264896002</v>
-      </c>
-      <c r="AK10">
-        <v>1798.628868341761</v>
-      </c>
-      <c r="AL10">
+      <c r="Y12">
+        <v>27981.26757368535</v>
+      </c>
+      <c r="Z12">
+        <v>8.103870689655173</v>
+      </c>
+      <c r="AA12">
+        <v>1205.239799944397</v>
+      </c>
+      <c r="AB12">
+        <v>0.3490587931034483</v>
+      </c>
+      <c r="AC12">
+        <v>213599.7050094092</v>
+      </c>
+      <c r="AD12">
+        <v>61.86225781896408</v>
+      </c>
+      <c r="AE12">
+        <v>159889.9984619554</v>
+      </c>
+      <c r="AF12">
+        <v>46.3069755039762</v>
+      </c>
+      <c r="AG12">
+        <v>156233.5094739399</v>
+      </c>
+      <c r="AH12">
+        <v>87490.76530540631</v>
+      </c>
+      <c r="AI12">
+        <v>25.33887525670087</v>
+      </c>
+      <c r="AJ12">
+        <v>17180.16473520001</v>
+      </c>
+      <c r="AK12">
+        <v>9620.892251712006</v>
+      </c>
+      <c r="AL12">
+        <v>2.786380800000002</v>
+      </c>
+      <c r="AM12">
+        <v>148396.0345284211</v>
+      </c>
+      <c r="AN12">
+        <v>42.9781199693356</v>
+      </c>
+      <c r="AO12">
+        <v>213085.4537111199</v>
+      </c>
+      <c r="AP12">
+        <v>220737.6102343436</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>134131.6501318009</v>
+      </c>
+      <c r="AS12">
+        <v>86605.96010254271</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>14619.15</v>
+      </c>
+      <c r="C13">
+        <v>1940501.842094691</v>
+      </c>
+      <c r="D13">
+        <v>132.7369814315258</v>
+      </c>
+      <c r="E13">
+        <v>1944382.84577888</v>
+      </c>
+      <c r="F13">
+        <v>133.0024553943889</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1944382.84577888</v>
+      </c>
+      <c r="J13">
+        <v>133.0024553943889</v>
+      </c>
+      <c r="K13">
+        <v>349988.9122401984</v>
+      </c>
+      <c r="L13">
+        <v>23.94044197099</v>
+      </c>
+      <c r="M13">
+        <v>-721813.5204718938</v>
+      </c>
+      <c r="N13">
+        <v>-49.37452043873234</v>
+      </c>
+      <c r="O13">
+        <v>232843.0711199657</v>
+      </c>
+      <c r="P13">
+        <v>15.92726465765559</v>
+      </c>
+      <c r="Q13">
+        <v>232843.0711199657</v>
+      </c>
+      <c r="R13">
+        <v>15.92726465765559</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>130392.1198271808</v>
+      </c>
+      <c r="V13">
+        <v>8.91926820828713</v>
+      </c>
+      <c r="W13">
+        <v>285073.425</v>
+      </c>
+      <c r="X13">
+        <v>19.5</v>
+      </c>
+      <c r="Y13">
+        <v>285380.2469941324</v>
+      </c>
+      <c r="Z13">
+        <v>19.52098767672076</v>
+      </c>
+      <c r="AA13">
+        <v>27669.20743084993</v>
+      </c>
+      <c r="AB13">
+        <v>1.892668686678086</v>
+      </c>
+      <c r="AC13">
+        <v>408480.7182873037</v>
+      </c>
+      <c r="AD13">
+        <v>27.94148211676491</v>
+      </c>
+      <c r="AE13">
+        <v>1944382.84577888</v>
+      </c>
+      <c r="AF13">
+        <v>133.0024553943889</v>
+      </c>
+      <c r="AG13">
+        <v>144902.3462073379</v>
+      </c>
+      <c r="AH13">
+        <v>81145.31387610924</v>
+      </c>
+      <c r="AI13">
+        <v>5.550617777101216</v>
+      </c>
+      <c r="AJ13">
+        <v>30735.30096</v>
+      </c>
+      <c r="AK13">
+        <v>17211.7685376</v>
+      </c>
+      <c r="AL13">
+        <v>1.177344</v>
+      </c>
+      <c r="AM13">
+        <v>578738.1144810885</v>
+      </c>
+      <c r="AN13">
+        <v>39.58767195637834</v>
+      </c>
+      <c r="AO13">
+        <v>321239.5851453379</v>
+      </c>
+      <c r="AP13">
+        <v>1391340.355039485</v>
+      </c>
+      <c r="AQ13">
+        <v>271896.2487024483</v>
+      </c>
+      <c r="AR13">
+        <v>398788.8701786944</v>
+      </c>
+      <c r="AS13">
+        <v>24640.23712721147</v>
+      </c>
+      <c r="AT13">
+        <v>696014.9990311312</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>807.9079999999999</v>
+      </c>
+      <c r="C14">
+        <v>140287.8417205313</v>
+      </c>
+      <c r="D14">
+        <v>173.6433377569368</v>
+      </c>
+      <c r="E14">
+        <v>140568.4174039723</v>
+      </c>
+      <c r="F14">
+        <v>173.9906244324506</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>140568.4174039723</v>
+      </c>
+      <c r="J14">
+        <v>173.9906244324506</v>
+      </c>
+      <c r="K14">
+        <v>25302.31513271501</v>
+      </c>
+      <c r="L14">
+        <v>31.31831239784111</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>5978.519200000001</v>
+      </c>
+      <c r="X14">
+        <v>7.400000000000002</v>
+      </c>
+      <c r="Y14">
+        <v>5984.434090856023</v>
+      </c>
+      <c r="Z14">
+        <v>7.407321243082163</v>
+      </c>
+      <c r="AA14">
+        <v>533.4048573962299</v>
+      </c>
+      <c r="AB14">
+        <v>0.6602297011494254</v>
+      </c>
+      <c r="AC14">
+        <v>18316.97941361744</v>
+      </c>
+      <c r="AD14">
+        <v>22.67211045517242</v>
+      </c>
+      <c r="AE14">
+        <v>140568.4174039723</v>
+      </c>
+      <c r="AF14">
+        <v>173.9906244324506</v>
+      </c>
+      <c r="AG14">
+        <v>14297.08773617743</v>
+      </c>
+      <c r="AH14">
+        <v>8006.369132259362</v>
+      </c>
+      <c r="AI14">
+        <v>9.910001054896552</v>
+      </c>
+      <c r="AJ14">
+        <v>4019.891677440002</v>
+      </c>
+      <c r="AK14">
+        <v>2251.139339366401</v>
+      </c>
+      <c r="AL14">
+        <v>2.786380800000002</v>
+      </c>
+      <c r="AM14">
+        <v>35559.82360434078</v>
+      </c>
+      <c r="AN14">
+        <v>44.01469425273767</v>
+      </c>
+      <c r="AO14">
+        <v>29382.39097947343</v>
+      </c>
+      <c r="AP14">
+        <v>91963.09324787885</v>
+      </c>
+      <c r="AQ14">
+        <v>40473.96877306986</v>
+      </c>
+      <c r="AR14">
+        <v>14657.98076165094</v>
+      </c>
+      <c r="AS14">
+        <v>9225.627991193422</v>
+      </c>
+      <c r="AT14">
+        <v>27605.51572196462</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <v>4196.28</v>
+      </c>
+      <c r="C15">
+        <v>153905.2256523426</v>
+      </c>
+      <c r="D15">
+        <v>36.67658632225271</v>
+      </c>
+      <c r="E15">
+        <v>154213.0361036473</v>
+      </c>
+      <c r="F15">
+        <v>36.74993949489723</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>154213.0361036473</v>
+      </c>
+      <c r="J15">
+        <v>36.74993949489723</v>
+      </c>
+      <c r="K15">
+        <v>27758.34649865652</v>
+      </c>
+      <c r="L15">
+        <v>6.614989109081501</v>
+      </c>
+      <c r="M15">
+        <v>-120383.7386224499</v>
+      </c>
+      <c r="N15">
+        <v>-28.68820446263117</v>
+      </c>
+      <c r="O15">
+        <v>38833.46407175803</v>
+      </c>
+      <c r="P15">
+        <v>9.25425950407457</v>
+      </c>
+      <c r="Q15">
+        <v>38833.46407175803</v>
+      </c>
+      <c r="R15">
+        <v>9.25425950407457</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>21746.7398801845</v>
+      </c>
+      <c r="V15">
+        <v>5.182385322281759</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>374270.250969485</v>
+      </c>
+      <c r="AD15">
+        <v>89.19096222594416</v>
+      </c>
+      <c r="AE15">
+        <v>154213.0361036473</v>
+      </c>
+      <c r="AF15">
+        <v>36.74993949489723</v>
+      </c>
+      <c r="AG15">
+        <v>314557.4404273269</v>
+      </c>
+      <c r="AH15">
+        <v>176152.1666393031</v>
+      </c>
+      <c r="AI15">
+        <v>41.97817272424697</v>
+      </c>
+      <c r="AJ15">
+        <v>20879.34647040001</v>
+      </c>
+      <c r="AK15">
+        <v>11692.434023424</v>
+      </c>
+      <c r="AL15">
         <v>2.786380800000001</v>
       </c>
-      <c r="AM10">
-        <v>57395.70934482056</v>
-      </c>
-      <c r="AN10">
-        <v>88.91567645538355</v>
-      </c>
-      <c r="AO10">
-        <v>54261.00432768576</v>
-      </c>
-      <c r="AP10">
-        <v>56884.77943034428</v>
-      </c>
-      <c r="AQ10">
-        <v>26722.02729027598</v>
-      </c>
-      <c r="AR10">
-        <v>5820.37064949248</v>
-      </c>
-      <c r="AS10">
-        <v>3639.313128617208</v>
-      </c>
-      <c r="AT10">
-        <v>20703.06836195861</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV10" t="s">
+      <c r="AM15">
+        <v>237349.6870415681</v>
+      </c>
+      <c r="AN15">
+        <v>56.56192795561024</v>
+      </c>
+      <c r="AO15">
+        <v>380558.9198266867</v>
+      </c>
+      <c r="AP15">
+        <v>88338.3315503381</v>
+      </c>
+      <c r="AQ15">
+        <v>52868.90133186029</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>35469.43021847784</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>2007.44128</v>
+      </c>
+      <c r="C16">
+        <v>139131.1376600823</v>
+      </c>
+      <c r="D16">
+        <v>69.30769982974661</v>
+      </c>
+      <c r="E16">
+        <v>139409.3999354025</v>
+      </c>
+      <c r="F16">
+        <v>69.4463152294061</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>139409.3999354025</v>
+      </c>
+      <c r="J16">
+        <v>69.4463152294061</v>
+      </c>
+      <c r="K16">
+        <v>25093.69198837244</v>
+      </c>
+      <c r="L16">
+        <v>12.5003367412931</v>
+      </c>
+      <c r="M16">
+        <v>-16239.43109921865</v>
+      </c>
+      <c r="N16">
+        <v>-8.089616997025511</v>
+      </c>
+      <c r="O16">
+        <v>5238.526161038274</v>
+      </c>
+      <c r="P16">
+        <v>2.609553870008229</v>
+      </c>
+      <c r="Q16">
+        <v>5238.526161038274</v>
+      </c>
+      <c r="R16">
+        <v>2.609553870008229</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>2933.574650181434</v>
+      </c>
+      <c r="V16">
+        <v>1.461350167204609</v>
+      </c>
+      <c r="W16">
+        <v>12847.624192</v>
+      </c>
+      <c r="X16">
+        <v>6.399999999999999</v>
+      </c>
+      <c r="Y16">
+        <v>12861.09746775252</v>
+      </c>
+      <c r="Z16">
+        <v>6.406711666182593</v>
+      </c>
+      <c r="AA16">
+        <v>1215.020007361948</v>
+      </c>
+      <c r="AB16">
+        <v>0.6052580563462099</v>
+      </c>
+      <c r="AC16">
+        <v>81202.86861795896</v>
+      </c>
+      <c r="AD16">
+        <v>40.45093095722279</v>
+      </c>
+      <c r="AE16">
+        <v>139409.3999354025</v>
+      </c>
+      <c r="AF16">
+        <v>69.4463152294061</v>
+      </c>
+      <c r="AG16">
+        <v>73150.71275887269</v>
+      </c>
+      <c r="AH16">
+        <v>40964.3991449687</v>
+      </c>
+      <c r="AI16">
+        <v>20.40627516884016</v>
+      </c>
+      <c r="AJ16">
+        <v>2813.629698048001</v>
+      </c>
+      <c r="AK16">
+        <v>1575.632630906881</v>
+      </c>
+      <c r="AL16">
+        <v>0.7848960000000004</v>
+      </c>
+      <c r="AM16">
+        <v>70567.29841442946</v>
+      </c>
+      <c r="AN16">
+        <v>35.15285807733786</v>
+      </c>
+      <c r="AO16">
+        <v>113871.4283953015</v>
+      </c>
+      <c r="AP16">
+        <v>48952.76546835018</v>
+      </c>
+      <c r="AQ16">
+        <v>13910.13273622063</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>6717.057691104045</v>
+      </c>
+      <c r="AT16">
+        <v>28325.57504102551</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>7207.660000000003</v>
+      </c>
+      <c r="C17">
+        <v>557237.4071340561</v>
+      </c>
+      <c r="D17">
+        <v>77.31183312393425</v>
+      </c>
+      <c r="E17">
+        <v>558351.8819483242</v>
+      </c>
+      <c r="F17">
+        <v>77.46645679018211</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>558351.8819483242</v>
+      </c>
+      <c r="J17">
+        <v>77.46645679018211</v>
+      </c>
+      <c r="K17">
+        <v>100503.3387506983</v>
+      </c>
+      <c r="L17">
+        <v>13.94396222223278</v>
+      </c>
+      <c r="M17">
+        <v>-242943.0706641443</v>
+      </c>
+      <c r="N17">
+        <v>-33.70623346053286</v>
+      </c>
+      <c r="O17">
+        <v>78368.73247230463</v>
+      </c>
+      <c r="P17">
+        <v>10.87297853565576</v>
+      </c>
+      <c r="Q17">
+        <v>78368.73247230463</v>
+      </c>
+      <c r="R17">
+        <v>10.87297853565576</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>43886.49018449059</v>
+      </c>
+      <c r="V17">
+        <v>6.088867979967226</v>
+      </c>
+      <c r="W17">
+        <v>53336.68400000003</v>
+      </c>
+      <c r="X17">
+        <v>7.400000000000001</v>
+      </c>
+      <c r="Y17">
+        <v>53372.07149340743</v>
+      </c>
+      <c r="Z17">
+        <v>7.404909706257984</v>
+      </c>
+      <c r="AA17">
+        <v>3191.244155480001</v>
+      </c>
+      <c r="AB17">
+        <v>0.4427573103448276</v>
+      </c>
+      <c r="AC17">
+        <v>442421.4495393857</v>
+      </c>
+      <c r="AD17">
+        <v>61.38211979191382</v>
+      </c>
+      <c r="AE17">
+        <v>558351.8819483242</v>
+      </c>
+      <c r="AF17">
+        <v>77.46645679018211</v>
+      </c>
+      <c r="AG17">
+        <v>328189.7073582811</v>
+      </c>
+      <c r="AH17">
+        <v>183786.2361206374</v>
+      </c>
+      <c r="AI17">
+        <v>25.49873830350451</v>
+      </c>
+      <c r="AJ17">
+        <v>35863.00970880003</v>
+      </c>
+      <c r="AK17">
+        <v>20083.28543692802</v>
+      </c>
+      <c r="AL17">
+        <v>2.786380800000002</v>
+      </c>
+      <c r="AM17">
+        <v>348259.3504927544</v>
+      </c>
+      <c r="AN17">
+        <v>48.31794930570452</v>
+      </c>
+      <c r="AO17">
+        <v>480975.8890682012</v>
+      </c>
+      <c r="AP17">
+        <v>424053.582522556</v>
+      </c>
+      <c r="AQ17">
+        <v>152605.9176705976</v>
+      </c>
+      <c r="AR17">
+        <v>104349.0369502304</v>
+      </c>
+      <c r="AS17">
+        <v>47121.1237414581</v>
+      </c>
+      <c r="AT17">
+        <v>119977.5041602699</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>19990.80000000001</v>
+      </c>
+      <c r="C18">
+        <v>2462950.729218695</v>
+      </c>
+      <c r="D18">
+        <v>123.2042103977176</v>
+      </c>
+      <c r="E18">
+        <v>2467876.630677132</v>
+      </c>
+      <c r="F18">
+        <v>123.450618818513</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2467876.630677132</v>
+      </c>
+      <c r="J18">
+        <v>123.450618818513</v>
+      </c>
+      <c r="K18">
+        <v>444217.7935218837</v>
+      </c>
+      <c r="L18">
+        <v>22.22111138733235</v>
+      </c>
+      <c r="M18">
+        <v>-210246.9896794276</v>
+      </c>
+      <c r="N18">
+        <v>-10.51718739017086</v>
+      </c>
+      <c r="O18">
+        <v>67821.60957400892</v>
+      </c>
+      <c r="P18">
+        <v>3.392641093603502</v>
+      </c>
+      <c r="Q18">
+        <v>67821.60957400892</v>
+      </c>
+      <c r="R18">
+        <v>3.392641093603502</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>37980.10136144499</v>
+      </c>
+      <c r="V18">
+        <v>1.899879012417961</v>
+      </c>
+      <c r="W18">
+        <v>389820.6000000002</v>
+      </c>
+      <c r="X18">
+        <v>19.5</v>
+      </c>
+      <c r="Y18">
+        <v>390312.8125873663</v>
+      </c>
+      <c r="Z18">
+        <v>19.52462195546782</v>
+      </c>
+      <c r="AA18">
+        <v>44387.73112867481</v>
+      </c>
+      <c r="AB18">
+        <v>2.22040794408802</v>
+      </c>
+      <c r="AC18">
+        <v>721444.8928970819</v>
+      </c>
+      <c r="AD18">
+        <v>36.08884551379042</v>
+      </c>
+      <c r="AE18">
+        <v>2467876.630677132</v>
+      </c>
+      <c r="AF18">
+        <v>123.450618818513</v>
+      </c>
+      <c r="AG18">
+        <v>611594.6254030729</v>
+      </c>
+      <c r="AH18">
+        <v>342492.9902257208</v>
+      </c>
+      <c r="AI18">
+        <v>17.13253047530467</v>
+      </c>
+      <c r="AJ18">
+        <v>42028.65792000002</v>
+      </c>
+      <c r="AK18">
+        <v>23536.04843520001</v>
+      </c>
+      <c r="AL18">
+        <v>1.177344</v>
+      </c>
+      <c r="AM18">
+        <v>848226.9335442495</v>
+      </c>
+      <c r="AN18">
+        <v>42.43086487505498</v>
+      </c>
+      <c r="AO18">
+        <v>789996.623179073</v>
+      </c>
+      <c r="AP18">
+        <v>282435.7713936399</v>
+      </c>
+      <c r="AQ18">
+        <v>92710.9732791041</v>
+      </c>
+      <c r="AR18">
+        <v>71952.97446159381</v>
+      </c>
+      <c r="AS18">
+        <v>42326.3273291975</v>
+      </c>
+      <c r="AT18">
+        <v>75445.4963237445</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>2076.75</v>
+      </c>
+      <c r="C19">
+        <v>192519.7574956744</v>
+      </c>
+      <c r="D19">
+        <v>92.70242325541082</v>
+      </c>
+      <c r="E19">
+        <v>192904.7970106658</v>
+      </c>
+      <c r="F19">
+        <v>92.88782810192166</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>192904.7970106658</v>
+      </c>
+      <c r="J19">
+        <v>92.88782810192166</v>
+      </c>
+      <c r="K19">
+        <v>34722.86346191984</v>
+      </c>
+      <c r="L19">
+        <v>16.7198090583459</v>
+      </c>
+      <c r="M19">
+        <v>-74827.85018299361</v>
+      </c>
+      <c r="N19">
+        <v>-36.03122676441248</v>
+      </c>
+      <c r="O19">
+        <v>24138.01618806245</v>
+      </c>
+      <c r="P19">
+        <v>11.62297637561693</v>
+      </c>
+      <c r="Q19">
+        <v>24138.01618806245</v>
+      </c>
+      <c r="R19">
+        <v>11.62297637561693</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>13517.28906531498</v>
+      </c>
+      <c r="V19">
+        <v>6.50886677034548</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>36810.88525692245</v>
+      </c>
+      <c r="AD19">
+        <v>17.72523667120378</v>
+      </c>
+      <c r="AE19">
+        <v>192904.7970106658</v>
+      </c>
+      <c r="AF19">
+        <v>92.88782810192166</v>
+      </c>
+      <c r="AG19">
+        <v>12672.86906886</v>
+      </c>
+      <c r="AH19">
+        <v>7096.806678561601</v>
+      </c>
+      <c r="AI19">
+        <v>3.417265765528639</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>55336.95920579642</v>
+      </c>
+      <c r="AN19">
+        <v>26.64594159422002</v>
+      </c>
+      <c r="AO19">
+        <v>32166.24506886</v>
+      </c>
+      <c r="AP19">
+        <v>269353.2482081315</v>
+      </c>
+      <c r="AQ19">
+        <v>124694.5586231952</v>
+      </c>
+      <c r="AR19">
+        <v>30622.36184024984</v>
+      </c>
+      <c r="AS19">
+        <v>16249.78283170939</v>
+      </c>
+      <c r="AT19">
+        <v>97786.54491297714</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>812.6999999999998</v>
+      </c>
+      <c r="C20">
+        <v>37293.39424091944</v>
+      </c>
+      <c r="D20">
+        <v>45.88826656936071</v>
+      </c>
+      <c r="E20">
+        <v>39792.05165506104</v>
+      </c>
+      <c r="F20">
+        <v>48.96278042950787</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>39792.05165506104</v>
+      </c>
+      <c r="J20">
+        <v>48.96278042950787</v>
+      </c>
+      <c r="K20">
+        <v>12335.53601306892</v>
+      </c>
+      <c r="L20">
+        <v>15.17846193314744</v>
+      </c>
+      <c r="M20">
+        <v>-20873.60466025745</v>
+      </c>
+      <c r="N20">
+        <v>-25.68426806971508</v>
+      </c>
+      <c r="O20">
+        <v>6733.420858147563</v>
+      </c>
+      <c r="P20">
+        <v>8.285247764424222</v>
+      </c>
+      <c r="Q20">
+        <v>6733.420858147563</v>
+      </c>
+      <c r="R20">
+        <v>8.285247764424222</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>3770.715680562635</v>
+      </c>
+      <c r="V20">
+        <v>4.639738748077564</v>
+      </c>
+      <c r="W20">
+        <v>6582.869999999999</v>
+      </c>
+      <c r="X20">
+        <v>8.100000000000001</v>
+      </c>
+      <c r="Y20">
+        <v>6703.929371637929</v>
+      </c>
+      <c r="Z20">
+        <v>8.24895948275862</v>
+      </c>
+      <c r="AA20">
+        <v>597.6538560698275</v>
+      </c>
+      <c r="AB20">
+        <v>0.7353929568965518</v>
+      </c>
+      <c r="AC20">
+        <v>28771.98323283763</v>
+      </c>
+      <c r="AD20">
+        <v>35.40295709713011</v>
+      </c>
+      <c r="AE20">
+        <v>39792.05165506104</v>
+      </c>
+      <c r="AF20">
+        <v>48.96278042950787</v>
+      </c>
+      <c r="AG20">
+        <v>17994.82723869007</v>
+      </c>
+      <c r="AH20">
+        <v>10077.10325366644</v>
+      </c>
+      <c r="AI20">
+        <v>12.3995364263153</v>
+      </c>
+      <c r="AJ20">
+        <v>4043.735135999999</v>
+      </c>
+      <c r="AK20">
+        <v>2264.491676159999</v>
+      </c>
+      <c r="AL20">
+        <v>2.7863808</v>
+      </c>
+      <c r="AM20">
+        <v>28447.846623458</v>
+      </c>
+      <c r="AN20">
+        <v>35.00411790754031</v>
+      </c>
+      <c r="AO20">
+        <v>45984.58220109007</v>
+      </c>
+      <c r="AP20">
+        <v>31334.52896157703</v>
+      </c>
+      <c r="AQ20">
+        <v>14517.38940782623</v>
+      </c>
+      <c r="AR20">
+        <v>5297.147744290416</v>
+      </c>
+      <c r="AS20">
+        <v>11519.99180946039</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="AW10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>91</v>
+      <c r="B21">
+        <v>255.728</v>
+      </c>
+      <c r="C21">
+        <v>33855.06702180378</v>
+      </c>
+      <c r="D21">
+        <v>132.3870167592277</v>
+      </c>
+      <c r="E21">
+        <v>34803.00889841429</v>
+      </c>
+      <c r="F21">
+        <v>136.0938532284861</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>34803.00889841429</v>
+      </c>
+      <c r="J21">
+        <v>136.0938532284861</v>
+      </c>
+      <c r="K21">
+        <v>10788.93275850843</v>
+      </c>
+      <c r="L21">
+        <v>42.18909450083069</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>21992.608</v>
+      </c>
+      <c r="X21">
+        <v>86.00000000000003</v>
+      </c>
+      <c r="Y21">
+        <v>22254.6333214875</v>
+      </c>
+      <c r="Z21">
+        <v>87.02462507620405</v>
+      </c>
+      <c r="AA21">
+        <v>2982.222480415619</v>
+      </c>
+      <c r="AB21">
+        <v>11.66169711731066</v>
+      </c>
+      <c r="AC21">
+        <v>1481.332646184653</v>
+      </c>
+      <c r="AD21">
+        <v>5.7926102976</v>
+      </c>
+      <c r="AE21">
+        <v>34803.00889841429</v>
+      </c>
+      <c r="AF21">
+        <v>136.0938532284861</v>
+      </c>
+      <c r="AG21">
+        <v>1212.511372584653</v>
+      </c>
+      <c r="AH21">
+        <v>679.0063686474056</v>
+      </c>
+      <c r="AI21">
+        <v>2.655189766656</v>
+      </c>
+      <c r="AJ21">
+        <v>268.8212736000001</v>
+      </c>
+      <c r="AK21">
+        <v>150.539913216</v>
+      </c>
+      <c r="AL21">
+        <v>0.5886720000000002</v>
+      </c>
+      <c r="AM21">
+        <v>11618.47904037184</v>
+      </c>
+      <c r="AN21">
+        <v>45.43295626748669</v>
+      </c>
+      <c r="AO21">
+        <v>8861.437122664653</v>
+      </c>
+      <c r="AP21">
+        <v>64426.07647006115</v>
+      </c>
+      <c r="AQ21">
+        <v>34605.85320727693</v>
+      </c>
+      <c r="AR21">
+        <v>11461.43085756993</v>
+      </c>
+      <c r="AS21">
+        <v>7639.490148740515</v>
+      </c>
+      <c r="AT21">
+        <v>10719.30225647376</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
